--- a/stock trading/tos work/regression difference.xlsx
+++ b/stock trading/tos work/regression difference.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\github\Random_Projects\stock trading\tos work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48CA14-6D6B-439C-9E99-D472BBC7C428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9934773A-FA28-44FE-BA9C-09F96995E742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Every data point" sheetId="2" r:id="rId2"/>
-    <sheet name="Every but no open or close" sheetId="3" r:id="rId3"/>
+    <sheet name="TICK &gt; 750" sheetId="1" r:id="rId1"/>
+    <sheet name="XLF regression" sheetId="4" r:id="rId2"/>
+    <sheet name="XLV regression" sheetId="5" r:id="rId3"/>
+    <sheet name="Every data point" sheetId="2" r:id="rId4"/>
+    <sheet name="Every but no open or close" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="50">
   <si>
     <t>Tick open</t>
   </si>
@@ -119,9 +121,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>So if we have a negative gap we are more likely to close higher</t>
-  </si>
-  <si>
     <t>Gap Up percentage</t>
   </si>
   <si>
@@ -156,6 +155,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>So if we have a negative gap we are more likely to close higher when tick is greater than 750?</t>
+  </si>
+  <si>
+    <t>SPY Gap Up</t>
+  </si>
+  <si>
+    <t>TICK open</t>
+  </si>
+  <si>
+    <t>XLF Gap Up</t>
+  </si>
+  <si>
+    <t>XLF Close percentage</t>
+  </si>
+  <si>
+    <t>XLV Gap Up</t>
+  </si>
+  <si>
+    <t>SPY Close Percentage</t>
+  </si>
+  <si>
+    <t>XLV Close percentage</t>
   </si>
 </sst>
 </file>
@@ -528,7 +551,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1301,7 @@
         <v>-0.24932249322493599</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1304,6 +1327,3507 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96489AF8-25A6-41F9-A155-0BD7F16722DC}">
+  <dimension ref="A1:O86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.44221345763117498</v>
+      </c>
+      <c r="B2">
+        <v>-0.26772965254641601</v>
+      </c>
+      <c r="C2">
+        <v>1208</v>
+      </c>
+      <c r="D2">
+        <v>0.25798129635600803</v>
+      </c>
+      <c r="E2">
+        <v>9.6494049533615706E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.46829326492870998</v>
+      </c>
+      <c r="B3">
+        <v>0.17516254490396599</v>
+      </c>
+      <c r="C3">
+        <v>1039</v>
+      </c>
+      <c r="D3">
+        <v>0.51413881748071999</v>
+      </c>
+      <c r="E3">
+        <v>-0.44757033248082001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.31479226680129502</v>
+      </c>
+      <c r="B4">
+        <v>0.16282305574467901</v>
+      </c>
+      <c r="C4">
+        <v>1122</v>
+      </c>
+      <c r="D4">
+        <v>0.35598705501618999</v>
+      </c>
+      <c r="E4">
+        <v>0.38697194453401301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.9584332533972799</v>
+      </c>
+      <c r="B5">
+        <v>2.2017509473409098</v>
+      </c>
+      <c r="C5">
+        <v>1409</v>
+      </c>
+      <c r="D5">
+        <v>1.33828996282529</v>
+      </c>
+      <c r="E5">
+        <v>1.94424064563462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.79608357947706</v>
+      </c>
+      <c r="B6">
+        <v>1.32799325463744</v>
+      </c>
+      <c r="C6">
+        <v>1120</v>
+      </c>
+      <c r="D6">
+        <v>4.6470846120122804</v>
+      </c>
+      <c r="E6">
+        <v>1.1730205278592201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6.0376445931239999</v>
+      </c>
+      <c r="B7">
+        <v>2.3680109468242798</v>
+      </c>
+      <c r="C7">
+        <v>1155</v>
+      </c>
+      <c r="D7">
+        <v>7.5110456553755398</v>
+      </c>
+      <c r="E7">
+        <v>5.2511415525114202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.1446512671002402</v>
+      </c>
+      <c r="B8">
+        <v>3.7240849756846699</v>
+      </c>
+      <c r="C8">
+        <v>1687</v>
+      </c>
+      <c r="D8">
+        <v>5.9456398640996602</v>
+      </c>
+      <c r="E8">
+        <v>6.0929983965793699</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.10620365492929</v>
+      </c>
+      <c r="B9">
+        <v>4.6809874959922899</v>
+      </c>
+      <c r="C9">
+        <v>1089</v>
+      </c>
+      <c r="D9">
+        <v>1.3241785188818</v>
+      </c>
+      <c r="E9">
+        <v>4.8886737657308803</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.7814059688142051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.8881502075022998</v>
+      </c>
+      <c r="B10">
+        <v>2.7226186782500901</v>
+      </c>
+      <c r="C10">
+        <v>1633</v>
+      </c>
+      <c r="D10">
+        <v>4.9898167006109997</v>
+      </c>
+      <c r="E10">
+        <v>2.0853540252182299</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.61059528809846642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.5301668806161599</v>
+      </c>
+      <c r="B11">
+        <v>-3.3113307319207799</v>
+      </c>
+      <c r="C11">
+        <v>1631</v>
+      </c>
+      <c r="D11">
+        <v>5.4631828978622199</v>
+      </c>
+      <c r="E11">
+        <v>-4.2342342342342203</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.59112505250338976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.06740089767283</v>
+      </c>
+      <c r="B12">
+        <v>2.26526347216002</v>
+      </c>
+      <c r="C12">
+        <v>1325</v>
+      </c>
+      <c r="D12">
+        <v>1.50517403574786</v>
+      </c>
+      <c r="E12">
+        <v>2.8266913809082599</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.0732242892825605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.29547859723388</v>
+      </c>
+      <c r="B13">
+        <v>0.22335903163052201</v>
+      </c>
+      <c r="C13">
+        <v>1656</v>
+      </c>
+      <c r="D13">
+        <v>2.61378999549345</v>
+      </c>
+      <c r="E13">
+        <v>2.6789635485287602</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.9299136617572299</v>
+      </c>
+      <c r="B14">
+        <v>1.0000711794433701</v>
+      </c>
+      <c r="C14">
+        <v>1523</v>
+      </c>
+      <c r="D14">
+        <v>2.3968042609853399</v>
+      </c>
+      <c r="E14">
+        <v>-1.90723883831816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.2500895736295101</v>
+      </c>
+      <c r="B15">
+        <v>0.44151657439203501</v>
+      </c>
+      <c r="C15">
+        <v>1721</v>
+      </c>
+      <c r="D15">
+        <v>3.90220968500235</v>
+      </c>
+      <c r="E15">
+        <v>1.31221719457013</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.9447699970700201</v>
+      </c>
+      <c r="B16">
+        <v>0.269444943416561</v>
+      </c>
+      <c r="C16">
+        <v>1687</v>
+      </c>
+      <c r="D16">
+        <v>2.0666979802724299</v>
+      </c>
+      <c r="E16">
+        <v>-0.96640589047400205</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.59122832162821903</v>
+      </c>
+      <c r="B17">
+        <v>0.79791970932925205</v>
+      </c>
+      <c r="C17">
+        <v>1199</v>
+      </c>
+      <c r="D17">
+        <v>1.0732617825478299</v>
+      </c>
+      <c r="E17">
+        <v>0.36934441366573501</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>144.48515209554472</v>
+      </c>
+      <c r="J17" s="1">
+        <v>36.12128802388618</v>
+      </c>
+      <c r="K17" s="1">
+        <v>31.360446827508543</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.0502404765869968E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.75979785843021397</v>
+      </c>
+      <c r="B18">
+        <v>0.67690796857463698</v>
+      </c>
+      <c r="C18">
+        <v>1001</v>
+      </c>
+      <c r="D18">
+        <v>1.0119595216191399</v>
+      </c>
+      <c r="E18">
+        <v>2.3679417122039998</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1">
+        <v>92.14483000848459</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.1518103751060573</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1.38303431457933</v>
+      </c>
+      <c r="B19">
+        <v>-1.8177444849151101</v>
+      </c>
+      <c r="C19">
+        <v>1563</v>
+      </c>
+      <c r="D19">
+        <v>3.0249110320284598</v>
+      </c>
+      <c r="E19">
+        <v>-1.89982728842833</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>84</v>
+      </c>
+      <c r="I19" s="2">
+        <v>236.6299821040293</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.0298883561403902</v>
+      </c>
+      <c r="B20">
+        <v>0.57627002366823499</v>
+      </c>
+      <c r="C20">
+        <v>1620</v>
+      </c>
+      <c r="D20">
+        <v>3.08098591549297</v>
+      </c>
+      <c r="E20">
+        <v>-0.170794192997449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.0826251013858901</v>
+      </c>
+      <c r="B21">
+        <v>-0.156991348032371</v>
+      </c>
+      <c r="C21">
+        <v>1412</v>
+      </c>
+      <c r="D21">
+        <v>1.3723696248856301</v>
+      </c>
+      <c r="E21">
+        <v>-1.66967509025271</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.23131046613896</v>
+      </c>
+      <c r="B22">
+        <v>-2.43266724587291E-2</v>
+      </c>
+      <c r="C22">
+        <v>1608</v>
+      </c>
+      <c r="D22">
+        <v>1.3133208255159501</v>
+      </c>
+      <c r="E22">
+        <v>1.0185185185185099</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.88192811539927873</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.79763053773904169</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.1056849928278654</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.27217695507608913</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-0.70540724143070321</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.4692634722292608</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-0.70540724143070321</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.4692634722292608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.18534482758619</v>
+      </c>
+      <c r="B23">
+        <v>0.46377409048748502</v>
+      </c>
+      <c r="C23">
+        <v>1484</v>
+      </c>
+      <c r="D23">
+        <v>1.9248395967002601</v>
+      </c>
+      <c r="E23">
+        <v>0.22482014388489499</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.58061019345083298</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.24148505576889873</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.4043317778077213</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.8513190726232646E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.10003961718555732</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.0611807697161086</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.10003961718555732</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.0611807697161086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.3648176610311702</v>
+      </c>
+      <c r="B24">
+        <v>0.665415458112946</v>
+      </c>
+      <c r="C24">
+        <v>1885</v>
+      </c>
+      <c r="D24">
+        <v>3.7054631828978501</v>
+      </c>
+      <c r="E24">
+        <v>1.3742556115437501</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.95091307261848901</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.10677416863542763</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8.9058344801101672</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.3450956248053207E-13</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.73842570528227058</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.1634004399547075</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.73842570528227058</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.1634004399547075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.3186286262287099</v>
+      </c>
+      <c r="B25">
+        <v>0.37522817929822599</v>
+      </c>
+      <c r="C25">
+        <v>1598</v>
+      </c>
+      <c r="D25">
+        <v>1.6674386289948999</v>
+      </c>
+      <c r="E25">
+        <v>0.54669703872437803</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-9.0575931289362162E-4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>6.3015474097801783E-4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.4373601498067883</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.15451560540040352</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-2.1598072126440457E-3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3.4828858685680261E-4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-2.1598072126440457E-3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3.4828858685680261E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.1967235310045998</v>
+      </c>
+      <c r="B26">
+        <v>-0.94392740039082601</v>
+      </c>
+      <c r="C26">
+        <v>1667</v>
+      </c>
+      <c r="D26">
+        <v>3.78649635036495</v>
+      </c>
+      <c r="E26">
+        <v>1.36263736263735</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-0.17911452218114052</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.15596997337157054</v>
+      </c>
+      <c r="J26" s="2">
+        <v>-1.1483910544398968</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.25422942420645878</v>
+      </c>
+      <c r="L26" s="2">
+        <v>-0.48950466100193324</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.13127561663965223</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-0.48950466100193324</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.13127561663965223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.01645044804066</v>
+      </c>
+      <c r="B27">
+        <v>0.46670197272605801</v>
+      </c>
+      <c r="C27">
+        <v>1368</v>
+      </c>
+      <c r="D27">
+        <v>4.4666088464874196</v>
+      </c>
+      <c r="E27">
+        <v>-0.12453300124533399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.36899153296214698</v>
+      </c>
+      <c r="B28">
+        <v>-0.55145248645985501</v>
+      </c>
+      <c r="C28">
+        <v>1223</v>
+      </c>
+      <c r="D28">
+        <v>1.1221945137156999</v>
+      </c>
+      <c r="E28">
+        <v>-2.6715988491574101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.32727867779414099</v>
+      </c>
+      <c r="B29">
+        <v>0.49910291958896502</v>
+      </c>
+      <c r="C29">
+        <v>1133</v>
+      </c>
+      <c r="D29">
+        <v>0.88682432432432701</v>
+      </c>
+      <c r="E29">
+        <v>-8.3717036416909002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.70111659309271102</v>
+      </c>
+      <c r="B30">
+        <v>0.62532233109850299</v>
+      </c>
+      <c r="C30">
+        <v>1264</v>
+      </c>
+      <c r="D30">
+        <v>2.2203602848764001</v>
+      </c>
+      <c r="E30">
+        <v>1.4754098360655801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.88527749229188</v>
+      </c>
+      <c r="B31">
+        <v>0.66513255366767199</v>
+      </c>
+      <c r="C31">
+        <v>1584</v>
+      </c>
+      <c r="D31">
+        <v>5.8498023715415002</v>
+      </c>
+      <c r="E31">
+        <v>-2.0164301717699802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.27556835974198401</v>
+      </c>
+      <c r="B32">
+        <v>0.93061020548371698</v>
+      </c>
+      <c r="C32">
+        <v>1101</v>
+      </c>
+      <c r="D32">
+        <v>1.6387195121951299</v>
+      </c>
+      <c r="E32">
+        <v>0.26246719160103699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2.5381723828215899</v>
+      </c>
+      <c r="B33">
+        <v>-1.3074227874383599</v>
+      </c>
+      <c r="C33">
+        <v>1777</v>
+      </c>
+      <c r="D33">
+        <v>4.0207522697795</v>
+      </c>
+      <c r="E33">
+        <v>-0.95594347464671803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.74548119198827</v>
+      </c>
+      <c r="B34">
+        <v>-0.79878280715102001</v>
+      </c>
+      <c r="C34">
+        <v>1515</v>
+      </c>
+      <c r="D34">
+        <v>3.9735099337748299</v>
+      </c>
+      <c r="E34">
+        <v>-2.3089171974522298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.76656616845212699</v>
+      </c>
+      <c r="B35">
+        <v>-1.76019352579814</v>
+      </c>
+      <c r="C35">
+        <v>1130</v>
+      </c>
+      <c r="D35">
+        <v>1.9055509527754799</v>
+      </c>
+      <c r="E35">
+        <v>-2.52032520325203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.92395853454381704</v>
+      </c>
+      <c r="B36">
+        <v>-0.459344795687262</v>
+      </c>
+      <c r="C36">
+        <v>1497</v>
+      </c>
+      <c r="D36">
+        <v>1.5183466891606801</v>
+      </c>
+      <c r="E36">
+        <v>-1.0386373078520901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.45325779036827601</v>
+      </c>
+      <c r="B37">
+        <v>1.01191068644038</v>
+      </c>
+      <c r="C37">
+        <v>1275</v>
+      </c>
+      <c r="D37">
+        <v>1.0628875110717499</v>
+      </c>
+      <c r="E37">
+        <v>4.3821209465372497E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.19799046760273</v>
+      </c>
+      <c r="B38">
+        <v>-0.63963849287168695</v>
+      </c>
+      <c r="C38">
+        <v>1749</v>
+      </c>
+      <c r="D38">
+        <v>2.2231909328683401</v>
+      </c>
+      <c r="E38">
+        <v>-2.0469083155650298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.3259456170130901</v>
+      </c>
+      <c r="B39">
+        <v>0.214938205265988</v>
+      </c>
+      <c r="C39">
+        <v>1647</v>
+      </c>
+      <c r="D39">
+        <v>2.2202873313017002</v>
+      </c>
+      <c r="E39">
+        <v>-0.29812606473594599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.79977329260997498</v>
+      </c>
+      <c r="B40">
+        <v>-1.6524536906881599</v>
+      </c>
+      <c r="C40">
+        <v>1308</v>
+      </c>
+      <c r="D40">
+        <v>1.2787723785166201</v>
+      </c>
+      <c r="E40">
+        <v>-0.84175084175085302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.0943183243446599</v>
+      </c>
+      <c r="B41">
+        <v>-0.17369188300610999</v>
+      </c>
+      <c r="C41">
+        <v>1452</v>
+      </c>
+      <c r="D41">
+        <v>2.4070945945945899</v>
+      </c>
+      <c r="E41">
+        <v>-0.41237113402062398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.65675875678342199</v>
+      </c>
+      <c r="B42">
+        <v>-0.44110889875937997</v>
+      </c>
+      <c r="C42">
+        <v>1438</v>
+      </c>
+      <c r="D42">
+        <v>0.67114093959731602</v>
+      </c>
+      <c r="E42">
+        <v>1.2916666666666601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.29579350499734902</v>
+      </c>
+      <c r="B43">
+        <v>0.93132993915311002</v>
+      </c>
+      <c r="C43">
+        <v>1063</v>
+      </c>
+      <c r="D43">
+        <v>-0.166597251145367</v>
+      </c>
+      <c r="E43">
+        <v>2.0442219440967899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.427195055444472</v>
+      </c>
+      <c r="B44">
+        <v>0.19307931336168699</v>
+      </c>
+      <c r="C44">
+        <v>1208</v>
+      </c>
+      <c r="D44">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E44">
+        <v>0.70364238410595203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.38144053401675598</v>
+      </c>
+      <c r="B45">
+        <v>-1.20231557072881</v>
+      </c>
+      <c r="C45">
+        <v>1307</v>
+      </c>
+      <c r="D45">
+        <v>1.8784972022382</v>
+      </c>
+      <c r="E45">
+        <v>-0.70615927814829205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.79326923076922595</v>
+      </c>
+      <c r="B46">
+        <v>0.59623181492964406</v>
+      </c>
+      <c r="C46">
+        <v>1386</v>
+      </c>
+      <c r="D46">
+        <v>1.7779533781114201</v>
+      </c>
+      <c r="E46">
+        <v>-2.0186335403726798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.777659950512544</v>
+      </c>
+      <c r="B47">
+        <v>0.233836080907287</v>
+      </c>
+      <c r="C47">
+        <v>1281</v>
+      </c>
+      <c r="D47">
+        <v>0.57589469354175404</v>
+      </c>
+      <c r="E47">
+        <v>1.7995910020449899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.31866333649126199</v>
+      </c>
+      <c r="B48">
+        <v>0.32623626373625902</v>
+      </c>
+      <c r="C48">
+        <v>1100</v>
+      </c>
+      <c r="D48">
+        <v>0.71258907363420299</v>
+      </c>
+      <c r="E48">
+        <v>-0.31446540880503798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.214250557340979</v>
+      </c>
+      <c r="B49">
+        <v>-1.0285152977205101</v>
+      </c>
+      <c r="C49">
+        <v>1075</v>
+      </c>
+      <c r="D49">
+        <v>1.7928286852589601</v>
+      </c>
+      <c r="E49">
+        <v>-1.0176125244618399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.30248191830978</v>
+      </c>
+      <c r="B50">
+        <v>0.66360539179381095</v>
+      </c>
+      <c r="C50">
+        <v>1433</v>
+      </c>
+      <c r="D50">
+        <v>0.93344155844155996</v>
+      </c>
+      <c r="E50">
+        <v>8.0418174507436893E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.57803468208092601</v>
+      </c>
+      <c r="B51">
+        <v>-0.52409028646298295</v>
+      </c>
+      <c r="C51">
+        <v>1065</v>
+      </c>
+      <c r="D51">
+        <v>0.16299918500407101</v>
+      </c>
+      <c r="E51">
+        <v>0.52888527257934304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.78591266323938502</v>
+      </c>
+      <c r="B52">
+        <v>-0.27849437148217299</v>
+      </c>
+      <c r="C52">
+        <v>1186</v>
+      </c>
+      <c r="D52">
+        <v>0.199600798403196</v>
+      </c>
+      <c r="E52">
+        <v>-1.55378486055777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.3658625619809499</v>
+      </c>
+      <c r="B53">
+        <v>0.29109897365103199</v>
+      </c>
+      <c r="C53">
+        <v>1685</v>
+      </c>
+      <c r="D53">
+        <v>1.40485312899106</v>
+      </c>
+      <c r="E53">
+        <v>0.96557514693534996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.66498921639109299</v>
+      </c>
+      <c r="B54">
+        <v>1.1009938701422299</v>
+      </c>
+      <c r="C54">
+        <v>1382</v>
+      </c>
+      <c r="D54">
+        <v>0.94650205761316997</v>
+      </c>
+      <c r="E54">
+        <v>0.69302894415001204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4.4148810925369097E-2</v>
+      </c>
+      <c r="B55">
+        <v>-1.4650937012738701</v>
+      </c>
+      <c r="C55">
+        <v>1128</v>
+      </c>
+      <c r="D55">
+        <v>0.85020242914980104</v>
+      </c>
+      <c r="E55">
+        <v>-1.8466479325572001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.95243782282864997</v>
+      </c>
+      <c r="B56">
+        <v>0.78078788595764403</v>
+      </c>
+      <c r="C56">
+        <v>1512</v>
+      </c>
+      <c r="D56">
+        <v>0.94069529652351902</v>
+      </c>
+      <c r="E56">
+        <v>0.72933549432738898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.61333489846226996</v>
+      </c>
+      <c r="B57">
+        <v>0.27125565115938399</v>
+      </c>
+      <c r="C57">
+        <v>1344</v>
+      </c>
+      <c r="D57">
+        <v>0.56315366049879501</v>
+      </c>
+      <c r="E57">
+        <v>0.79999999999999705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.51777299435686397</v>
+      </c>
+      <c r="B58">
+        <v>0.37330709572867798</v>
+      </c>
+      <c r="C58">
+        <v>1210</v>
+      </c>
+      <c r="D58">
+        <v>0.55555555555555702</v>
+      </c>
+      <c r="E58">
+        <v>-0.43409629044987902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.39160355898527299</v>
+      </c>
+      <c r="B59">
+        <v>-1.9044887422916901</v>
+      </c>
+      <c r="C59">
+        <v>1068</v>
+      </c>
+      <c r="D59">
+        <v>0.36014405762304802</v>
+      </c>
+      <c r="E59">
+        <v>-1.8740031897926499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.42396421157275699</v>
+      </c>
+      <c r="B60">
+        <v>-2.32923775694357E-2</v>
+      </c>
+      <c r="C60">
+        <v>1300</v>
+      </c>
+      <c r="D60">
+        <v>0.65014221861032095</v>
+      </c>
+      <c r="E60">
+        <v>0.16148566814694801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.38304169931226401</v>
+      </c>
+      <c r="B61">
+        <v>-4.3361373688328299E-2</v>
+      </c>
+      <c r="C61">
+        <v>1204</v>
+      </c>
+      <c r="D61">
+        <v>0.63567739372267196</v>
+      </c>
+      <c r="E61">
+        <v>-0.31583103039873001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.12084277577018</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1466</v>
+      </c>
+      <c r="D62">
+        <v>1.67644593461861</v>
+      </c>
+      <c r="E62">
+        <v>0.20610057708160401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.0569351907934601</v>
+      </c>
+      <c r="B63">
+        <v>0.70124966286073098</v>
+      </c>
+      <c r="C63">
+        <v>1473</v>
+      </c>
+      <c r="D63">
+        <v>1.8510900863842099</v>
+      </c>
+      <c r="E63">
+        <v>0.36348949919224399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.6591954357571099</v>
+      </c>
+      <c r="B64">
+        <v>0.28633604398121598</v>
+      </c>
+      <c r="C64">
+        <v>1244</v>
+      </c>
+      <c r="D64">
+        <v>0.85504885993485602</v>
+      </c>
+      <c r="E64">
+        <v>1.57448526443278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3.9439113548092299</v>
+      </c>
+      <c r="B65">
+        <v>-2.5853779157622898</v>
+      </c>
+      <c r="C65">
+        <v>1321</v>
+      </c>
+      <c r="D65">
+        <v>8.0929487179487101</v>
+      </c>
+      <c r="E65">
+        <v>0.111193476649374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.58322244557062397</v>
+      </c>
+      <c r="B66">
+        <v>0.79657725110480504</v>
+      </c>
+      <c r="C66">
+        <v>1366</v>
+      </c>
+      <c r="D66">
+        <v>0.94020308386611495</v>
+      </c>
+      <c r="E66">
+        <v>0.70789865871833502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.80424462440658895</v>
+      </c>
+      <c r="B67">
+        <v>0.44046761593439299</v>
+      </c>
+      <c r="C67">
+        <v>1290</v>
+      </c>
+      <c r="D67">
+        <v>2.5157232704402501</v>
+      </c>
+      <c r="E67">
+        <v>-0.28870443883075297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.54878563588776297</v>
+      </c>
+      <c r="B68">
+        <v>5.0380653828931601E-2</v>
+      </c>
+      <c r="C68">
+        <v>1423</v>
+      </c>
+      <c r="D68">
+        <v>1.28771155261222</v>
+      </c>
+      <c r="E68">
+        <v>0.58118416273156603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.76931684664018296</v>
+      </c>
+      <c r="B69">
+        <v>0.83562366397380605</v>
+      </c>
+      <c r="C69">
+        <v>1452</v>
+      </c>
+      <c r="D69">
+        <v>1.73347778981581</v>
+      </c>
+      <c r="E69">
+        <v>1.7394391196307999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.96945257692094899</v>
+      </c>
+      <c r="B70">
+        <v>0.123095439997808</v>
+      </c>
+      <c r="C70">
+        <v>1528</v>
+      </c>
+      <c r="D70">
+        <v>1.8651362984218001</v>
+      </c>
+      <c r="E70">
+        <v>-0.31690140845070303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.17180724862963101</v>
+      </c>
+      <c r="B71">
+        <v>0.68877273222259305</v>
+      </c>
+      <c r="C71">
+        <v>1156</v>
+      </c>
+      <c r="D71">
+        <v>0.66363953894516603</v>
+      </c>
+      <c r="E71">
+        <v>0.55517002081887601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.19180376583731201</v>
+      </c>
+      <c r="B72">
+        <v>-1.0866048317515</v>
+      </c>
+      <c r="C72">
+        <v>1066</v>
+      </c>
+      <c r="D72">
+        <v>0.55613486270420598</v>
+      </c>
+      <c r="E72">
+        <v>-0.79502246802627097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.638820638820632</v>
+      </c>
+      <c r="B73">
+        <v>-1.0796440972222101</v>
+      </c>
+      <c r="C73">
+        <v>1407</v>
+      </c>
+      <c r="D73">
+        <v>1.3352073085031499</v>
+      </c>
+      <c r="E73">
+        <v>-2.4618585298196898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.75138485164261204</v>
+      </c>
+      <c r="B74">
+        <v>0.59608056614044502</v>
+      </c>
+      <c r="C74">
+        <v>1331</v>
+      </c>
+      <c r="D74">
+        <v>0.78208318521152598</v>
+      </c>
+      <c r="E74">
+        <v>0.91710758377424295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.47815868384795601</v>
+      </c>
+      <c r="B75">
+        <v>8.0658170672692195E-2</v>
+      </c>
+      <c r="C75">
+        <v>1174</v>
+      </c>
+      <c r="D75">
+        <v>0.174459176552689</v>
+      </c>
+      <c r="E75">
+        <v>0.104493207941475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.28319355190065398</v>
+      </c>
+      <c r="B76">
+        <v>-0.19278809601389599</v>
+      </c>
+      <c r="C76">
+        <v>1207</v>
+      </c>
+      <c r="D76">
+        <v>0.59774964838255296</v>
+      </c>
+      <c r="E76">
+        <v>1.0485844110450899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.74254742547425701</v>
+      </c>
+      <c r="B77">
+        <v>0.115672244041536</v>
+      </c>
+      <c r="C77">
+        <v>1298</v>
+      </c>
+      <c r="D77">
+        <v>0.69084628670120596</v>
+      </c>
+      <c r="E77">
+        <v>-0.205831903945107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.44065883870273898</v>
+      </c>
+      <c r="B78">
+        <v>-0.62866161953934396</v>
+      </c>
+      <c r="C78">
+        <v>1071</v>
+      </c>
+      <c r="D78">
+        <v>0.41251289102784799</v>
+      </c>
+      <c r="E78">
+        <v>-0.75316672372476001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.382475660639779</v>
+      </c>
+      <c r="B79">
+        <v>-1.7372305560736401</v>
+      </c>
+      <c r="C79">
+        <v>1106</v>
+      </c>
+      <c r="D79">
+        <v>0.37313432835820698</v>
+      </c>
+      <c r="E79">
+        <v>-1.7235552551537701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.21064272361040401</v>
+      </c>
+      <c r="B80">
+        <v>-0.55965737407708904</v>
+      </c>
+      <c r="C80">
+        <v>1308</v>
+      </c>
+      <c r="D80">
+        <v>0.28735632183908</v>
+      </c>
+      <c r="E80">
+        <v>0.15918497293855599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.70268831514505803</v>
+      </c>
+      <c r="B81">
+        <v>8.1936882169477795E-2</v>
+      </c>
+      <c r="C81">
+        <v>1231</v>
+      </c>
+      <c r="D81">
+        <v>0.51712992889463505</v>
+      </c>
+      <c r="E81">
+        <v>-0.25723472668810798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.26535549832202598</v>
+      </c>
+      <c r="B82">
+        <v>-0.42033159492488598</v>
+      </c>
+      <c r="C82">
+        <v>1113</v>
+      </c>
+      <c r="D82">
+        <v>0.39840637450198302</v>
+      </c>
+      <c r="E82">
+        <v>-1.19047619047618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.52081942255815505</v>
+      </c>
+      <c r="B83">
+        <v>0.33744287384418598</v>
+      </c>
+      <c r="C83">
+        <v>1046</v>
+      </c>
+      <c r="D83">
+        <v>1.27586206896552</v>
+      </c>
+      <c r="E83">
+        <v>0.57882192713652703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.98629988921015799</v>
+      </c>
+      <c r="B84">
+        <v>0.67162581611901695</v>
+      </c>
+      <c r="C84">
+        <v>1485</v>
+      </c>
+      <c r="D84">
+        <v>1.1053540587219299</v>
+      </c>
+      <c r="E84">
+        <v>0.20498804236419099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.90901841958375396</v>
+      </c>
+      <c r="B85">
+        <v>0.50046095087581499</v>
+      </c>
+      <c r="C85">
+        <v>1296</v>
+      </c>
+      <c r="D85">
+        <v>1.1592226389362501</v>
+      </c>
+      <c r="E85">
+        <v>1.2470508931580599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.520469199098886</v>
+      </c>
+      <c r="B86">
+        <v>-0.12622359608449399</v>
+      </c>
+      <c r="C86">
+        <v>1282</v>
+      </c>
+      <c r="D86">
+        <v>0.71243523316062896</v>
+      </c>
+      <c r="E86">
+        <v>-0.67524115755627201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E880B2A8-4C43-48BC-A959-1142A55AFD45}">
+  <dimension ref="A1:O86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.44221345763117498</v>
+      </c>
+      <c r="B2">
+        <v>1208</v>
+      </c>
+      <c r="C2">
+        <v>0.34752389226759201</v>
+      </c>
+      <c r="D2">
+        <v>-0.26772965254641601</v>
+      </c>
+      <c r="E2">
+        <v>0.25012025012024097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.46829326492870998</v>
+      </c>
+      <c r="B3">
+        <v>1039</v>
+      </c>
+      <c r="C3">
+        <v>0.37424431436522398</v>
+      </c>
+      <c r="D3">
+        <v>0.17516254490396599</v>
+      </c>
+      <c r="E3">
+        <v>-0.24856596558316499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.31479226680129502</v>
+      </c>
+      <c r="B4">
+        <v>1122</v>
+      </c>
+      <c r="C4">
+        <v>0.260718424101966</v>
+      </c>
+      <c r="D4">
+        <v>0.16282305574467901</v>
+      </c>
+      <c r="E4">
+        <v>0.20225368390639301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.9584332533972799</v>
+      </c>
+      <c r="B5">
+        <v>1409</v>
+      </c>
+      <c r="C5">
+        <v>3.0040194626612902</v>
+      </c>
+      <c r="D5">
+        <v>2.2017509473409098</v>
+      </c>
+      <c r="E5">
+        <v>2.6802218114602501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.79608357947706</v>
+      </c>
+      <c r="B6">
+        <v>1120</v>
+      </c>
+      <c r="C6">
+        <v>2.8881650380021799</v>
+      </c>
+      <c r="D6">
+        <v>1.32799325463744</v>
+      </c>
+      <c r="E6">
+        <v>0.52764879696074196</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6.0376445931239999</v>
+      </c>
+      <c r="B7">
+        <v>1155</v>
+      </c>
+      <c r="C7">
+        <v>4.6473224817173797</v>
+      </c>
+      <c r="D7">
+        <v>2.3680109468242798</v>
+      </c>
+      <c r="E7">
+        <v>2.1866546438232599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.1446512671002402</v>
+      </c>
+      <c r="B8">
+        <v>1687</v>
+      </c>
+      <c r="C8">
+        <v>4.7306352184400904</v>
+      </c>
+      <c r="D8">
+        <v>3.7240849756846699</v>
+      </c>
+      <c r="E8">
+        <v>2.8406909788867498</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.10620365492929</v>
+      </c>
+      <c r="B9">
+        <v>1089</v>
+      </c>
+      <c r="C9">
+        <v>0.89636542239686101</v>
+      </c>
+      <c r="D9">
+        <v>4.6809874959922899</v>
+      </c>
+      <c r="E9">
+        <v>5.6955093099671297</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.86075378284167625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.8881502075022998</v>
+      </c>
+      <c r="B10">
+        <v>1633</v>
+      </c>
+      <c r="C10">
+        <v>3.1804563263424801</v>
+      </c>
+      <c r="D10">
+        <v>2.7226186782500901</v>
+      </c>
+      <c r="E10">
+        <v>1.9991065445610801</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.74089707467625565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.5301668806161599</v>
+      </c>
+      <c r="B11">
+        <v>1631</v>
+      </c>
+      <c r="C11">
+        <v>2.5402386948428801</v>
+      </c>
+      <c r="D11">
+        <v>-3.3113307319207799</v>
+      </c>
+      <c r="E11">
+        <v>-3.27816337426589</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.72794192841006844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.06740089767283</v>
+      </c>
+      <c r="B12">
+        <v>1325</v>
+      </c>
+      <c r="C12">
+        <v>0.86111724442481896</v>
+      </c>
+      <c r="D12">
+        <v>2.26526347216002</v>
+      </c>
+      <c r="E12">
+        <v>3.2289842381786298</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.66400358156553552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.29547859723388</v>
+      </c>
+      <c r="B13">
+        <v>1656</v>
+      </c>
+      <c r="C13">
+        <v>0.91188633230834404</v>
+      </c>
+      <c r="D13">
+        <v>0.22335903163052201</v>
+      </c>
+      <c r="E13">
+        <v>-0.35725543763791401</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.9299136617572299</v>
+      </c>
+      <c r="B14">
+        <v>1523</v>
+      </c>
+      <c r="C14">
+        <v>1.95744680851064</v>
+      </c>
+      <c r="D14">
+        <v>1.0000711794433701</v>
+      </c>
+      <c r="E14">
+        <v>1.3355592654424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.2500895736295101</v>
+      </c>
+      <c r="B15">
+        <v>1721</v>
+      </c>
+      <c r="C15">
+        <v>2.4308720753570201</v>
+      </c>
+      <c r="D15">
+        <v>0.44151657439203501</v>
+      </c>
+      <c r="E15">
+        <v>-0.34608919212893702</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.9447699970700201</v>
+      </c>
+      <c r="B16">
+        <v>1687</v>
+      </c>
+      <c r="C16">
+        <v>1.45450794305755</v>
+      </c>
+      <c r="D16">
+        <v>0.269444943416561</v>
+      </c>
+      <c r="E16">
+        <v>7.1174377224206803E-2</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.59122832162821903</v>
+      </c>
+      <c r="B17">
+        <v>1199</v>
+      </c>
+      <c r="C17">
+        <v>0.60630557801132601</v>
+      </c>
+      <c r="D17">
+        <v>0.79791970932925205</v>
+      </c>
+      <c r="E17">
+        <v>0.73322619525914401</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100.85940332187739</v>
+      </c>
+      <c r="J17" s="1">
+        <v>25.214850830469349</v>
+      </c>
+      <c r="K17" s="1">
+        <v>57.1894025318717</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.0595538978119589E-22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.75979785843021397</v>
+      </c>
+      <c r="B18">
+        <v>1001</v>
+      </c>
+      <c r="C18">
+        <v>0.69797586997705496</v>
+      </c>
+      <c r="D18">
+        <v>0.67690796857463698</v>
+      </c>
+      <c r="E18">
+        <v>0.58421625903555097</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1">
+        <v>35.272060506548698</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.44090075633185871</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1.38303431457933</v>
+      </c>
+      <c r="B19">
+        <v>1563</v>
+      </c>
+      <c r="C19">
+        <v>0.66942311478638195</v>
+      </c>
+      <c r="D19">
+        <v>-1.8177444849151101</v>
+      </c>
+      <c r="E19">
+        <v>-2.6696655583806002</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>84</v>
+      </c>
+      <c r="I19" s="2">
+        <v>136.13146382842609</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.0298883561403902</v>
+      </c>
+      <c r="B20">
+        <v>1620</v>
+      </c>
+      <c r="C20">
+        <v>1.5372249572993</v>
+      </c>
+      <c r="D20">
+        <v>0.57627002366823499</v>
+      </c>
+      <c r="E20">
+        <v>-0.86087472788442898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.0826251013858901</v>
+      </c>
+      <c r="B21">
+        <v>1412</v>
+      </c>
+      <c r="C21">
+        <v>0.87952546533033205</v>
+      </c>
+      <c r="D21">
+        <v>-0.156991348032371</v>
+      </c>
+      <c r="E21">
+        <v>1.2773722627737201</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.23131046613896</v>
+      </c>
+      <c r="B22">
+        <v>1608</v>
+      </c>
+      <c r="C22">
+        <v>1.0211303204933799</v>
+      </c>
+      <c r="D22">
+        <v>-2.43266724587291E-2</v>
+      </c>
+      <c r="E22">
+        <v>-1.0208166533226499</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.1720049616945103</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.49412331119494063</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.3718876141670902</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.0100247538000725E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.18866823449633074</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.15534168889269</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.18866823449633074</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.15534168889269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.18534482758619</v>
+      </c>
+      <c r="B23">
+        <v>1484</v>
+      </c>
+      <c r="C23">
+        <v>1.07178968655206</v>
+      </c>
+      <c r="D23">
+        <v>0.46377409048748502</v>
+      </c>
+      <c r="E23">
+        <v>-0.55022008803521105</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.14421152398412898</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.21228287731196874</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-0.67933658055801271</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.49888547960813701</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.56666791308132358</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.27824486511306568</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-0.56666791308132358</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.27824486511306568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.3648176610311702</v>
+      </c>
+      <c r="B24">
+        <v>1885</v>
+      </c>
+      <c r="C24">
+        <v>1.8721370244971001</v>
+      </c>
+      <c r="D24">
+        <v>0.665415458112946</v>
+      </c>
+      <c r="E24">
+        <v>-1.0263929618768299</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-9.274933711583413E-4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.8758619568415929E-4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-2.3929989805781107</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.9054387034100628E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-1.6988144817725551E-3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-1.561722605441275E-4</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-1.6988144817725551E-3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-1.561722605441275E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.3186286262287099</v>
+      </c>
+      <c r="B25">
+        <v>1598</v>
+      </c>
+      <c r="C25">
+        <v>0.75977206837949096</v>
+      </c>
+      <c r="D25">
+        <v>0.37522817929822599</v>
+      </c>
+      <c r="E25">
+        <v>-0.63498362932830599</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.15059702507869802</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.24120281008976335</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.6243585015558214</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.53416871819884126</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-0.32941186438472325</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.63060591454211923</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-0.32941186438472325</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.63060591454211923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.1967235310045998</v>
+      </c>
+      <c r="B26">
+        <v>1667</v>
+      </c>
+      <c r="C26">
+        <v>1.5759887572776401</v>
+      </c>
+      <c r="D26">
+        <v>-0.94392740039082601</v>
+      </c>
+      <c r="E26">
+        <v>-1.72941990315248</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.90890230892372836</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6.2948975873500498E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>14.438714789422763</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.4542824656534912E-24</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.78362985463244628</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1.0341747632150105</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.78362985463244628</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1.0341747632150105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.01645044804066</v>
+      </c>
+      <c r="B27">
+        <v>1368</v>
+      </c>
+      <c r="C27">
+        <v>0.140788415124698</v>
+      </c>
+      <c r="D27">
+        <v>0.46670197272605801</v>
+      </c>
+      <c r="E27">
+        <v>0.89375376581642896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.36899153296214698</v>
+      </c>
+      <c r="B28">
+        <v>1223</v>
+      </c>
+      <c r="C28">
+        <v>0.81616402906340901</v>
+      </c>
+      <c r="D28">
+        <v>-0.55145248645985501</v>
+      </c>
+      <c r="E28">
+        <v>0.48375950241879201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.32727867779414099</v>
+      </c>
+      <c r="B29">
+        <v>1133</v>
+      </c>
+      <c r="C29">
+        <v>3.9219531326606702E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.49910291958896502</v>
+      </c>
+      <c r="E29">
+        <v>0.53905714005684302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.70111659309271102</v>
+      </c>
+      <c r="B30">
+        <v>1264</v>
+      </c>
+      <c r="C30">
+        <v>0.29245466952622001</v>
+      </c>
+      <c r="D30">
+        <v>0.62532233109850299</v>
+      </c>
+      <c r="E30">
+        <v>-0.48600311041990601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.88527749229188</v>
+      </c>
+      <c r="B31">
+        <v>1584</v>
+      </c>
+      <c r="C31">
+        <v>0.63010731515211205</v>
+      </c>
+      <c r="D31">
+        <v>0.66513255366767199</v>
+      </c>
+      <c r="E31">
+        <v>0.97837784952548601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.27556835974198401</v>
+      </c>
+      <c r="B32">
+        <v>1101</v>
+      </c>
+      <c r="C32">
+        <v>-0.397248328650321</v>
+      </c>
+      <c r="D32">
+        <v>0.93061020548371698</v>
+      </c>
+      <c r="E32">
+        <v>1.08949416342412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2.5381723828215899</v>
+      </c>
+      <c r="B33">
+        <v>1777</v>
+      </c>
+      <c r="C33">
+        <v>2.0934309580282502</v>
+      </c>
+      <c r="D33">
+        <v>-1.3074227874383599</v>
+      </c>
+      <c r="E33">
+        <v>-1.4141414141414199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.74548119198827</v>
+      </c>
+      <c r="B34">
+        <v>1515</v>
+      </c>
+      <c r="C34">
+        <v>2.3512574115722802</v>
+      </c>
+      <c r="D34">
+        <v>-0.79878280715102001</v>
+      </c>
+      <c r="E34">
+        <v>0.109868158210147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.76656616845212699</v>
+      </c>
+      <c r="B35">
+        <v>1130</v>
+      </c>
+      <c r="C35">
+        <v>1.14239903797975</v>
+      </c>
+      <c r="D35">
+        <v>-1.76019352579814</v>
+      </c>
+      <c r="E35">
+        <v>-0.178341424749833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.92395853454381704</v>
+      </c>
+      <c r="B36">
+        <v>1497</v>
+      </c>
+      <c r="C36">
+        <v>0.69041424854912703</v>
+      </c>
+      <c r="D36">
+        <v>-0.459344795687262</v>
+      </c>
+      <c r="E36">
+        <v>-0.25837225479478299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.45325779036827601</v>
+      </c>
+      <c r="B37">
+        <v>1275</v>
+      </c>
+      <c r="C37">
+        <v>0.78966259870781996</v>
+      </c>
+      <c r="D37">
+        <v>1.01191068644038</v>
+      </c>
+      <c r="E37">
+        <v>0.111925111925111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.19799046760273</v>
+      </c>
+      <c r="B38">
+        <v>1749</v>
+      </c>
+      <c r="C38">
+        <v>0.88258627528758404</v>
+      </c>
+      <c r="D38">
+        <v>-0.63963849287168695</v>
+      </c>
+      <c r="E38">
+        <v>-0.12778924604345701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.3259456170130901</v>
+      </c>
+      <c r="B39">
+        <v>1647</v>
+      </c>
+      <c r="C39">
+        <v>1.1515748031496</v>
+      </c>
+      <c r="D39">
+        <v>0.214938205265988</v>
+      </c>
+      <c r="E39">
+        <v>-0.13622652525056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.79977329260997498</v>
+      </c>
+      <c r="B40">
+        <v>1308</v>
+      </c>
+      <c r="C40">
+        <v>0.57591103167511903</v>
+      </c>
+      <c r="D40">
+        <v>-1.6524536906881599</v>
+      </c>
+      <c r="E40">
+        <v>-9.8726429065111206E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.0943183243446599</v>
+      </c>
+      <c r="B41">
+        <v>1452</v>
+      </c>
+      <c r="C41">
+        <v>0.73579242908315501</v>
+      </c>
+      <c r="D41">
+        <v>-0.17369188300610999</v>
+      </c>
+      <c r="E41">
+        <v>0.55742431523305902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.65675875678342199</v>
+      </c>
+      <c r="B42">
+        <v>1438</v>
+      </c>
+      <c r="C42">
+        <v>0.34003967129498303</v>
+      </c>
+      <c r="D42">
+        <v>-0.44110889875937997</v>
+      </c>
+      <c r="E42">
+        <v>-0.40478207662619398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.29579350499734902</v>
+      </c>
+      <c r="B43">
+        <v>1063</v>
+      </c>
+      <c r="C43">
+        <v>0.22690744067316701</v>
+      </c>
+      <c r="D43">
+        <v>0.93132993915311002</v>
+      </c>
+      <c r="E43">
+        <v>0.82067729459483996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.427195055444472</v>
+      </c>
+      <c r="B44">
+        <v>1208</v>
+      </c>
+      <c r="C44">
+        <v>0.54639660857277195</v>
+      </c>
+      <c r="D44">
+        <v>0.19307931336168699</v>
+      </c>
+      <c r="E44">
+        <v>-8.4324932071585604E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.38144053401675598</v>
+      </c>
+      <c r="B45">
+        <v>1307</v>
+      </c>
+      <c r="C45">
+        <v>0.55634134842055905</v>
+      </c>
+      <c r="D45">
+        <v>-1.20231557072881</v>
+      </c>
+      <c r="E45">
+        <v>-1.1815453863465899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.79326923076922595</v>
+      </c>
+      <c r="B46">
+        <v>1386</v>
+      </c>
+      <c r="C46">
+        <v>0.54089960144240601</v>
+      </c>
+      <c r="D46">
+        <v>0.59623181492964406</v>
+      </c>
+      <c r="E46">
+        <v>1.1326097215667701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.777659950512544</v>
+      </c>
+      <c r="B47">
+        <v>1281</v>
+      </c>
+      <c r="C47">
+        <v>0.477438681894781</v>
+      </c>
+      <c r="D47">
+        <v>0.233836080907287</v>
+      </c>
+      <c r="E47">
+        <v>-0.93170595360104302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.31866333649126199</v>
+      </c>
+      <c r="B48">
+        <v>1100</v>
+      </c>
+      <c r="C48">
+        <v>0.27839643652560903</v>
+      </c>
+      <c r="D48">
+        <v>0.32623626373625902</v>
+      </c>
+      <c r="E48">
+        <v>-5.5524708495282502E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.214250557340979</v>
+      </c>
+      <c r="B49">
+        <v>1075</v>
+      </c>
+      <c r="C49">
+        <v>0.34754837497652102</v>
+      </c>
+      <c r="D49">
+        <v>-1.0285152977205101</v>
+      </c>
+      <c r="E49">
+        <v>-1.0577553121782199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.30248191830978</v>
+      </c>
+      <c r="B50">
+        <v>1433</v>
+      </c>
+      <c r="C50">
+        <v>0.75028857252789605</v>
+      </c>
+      <c r="D50">
+        <v>0.66360539179381095</v>
+      </c>
+      <c r="E50">
+        <v>1.0120297880465901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.57803468208092601</v>
+      </c>
+      <c r="B51">
+        <v>1065</v>
+      </c>
+      <c r="C51">
+        <v>0.47033979650604202</v>
+      </c>
+      <c r="D51">
+        <v>-0.52409028646298295</v>
+      </c>
+      <c r="E51">
+        <v>-7.6430686920797006E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.78591266323938502</v>
+      </c>
+      <c r="B52">
+        <v>1186</v>
+      </c>
+      <c r="C52">
+        <v>0.51842775002356201</v>
+      </c>
+      <c r="D52">
+        <v>-0.27849437148217299</v>
+      </c>
+      <c r="E52">
+        <v>-0.38447111777944099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.3658625619809499</v>
+      </c>
+      <c r="B53">
+        <v>1685</v>
+      </c>
+      <c r="C53">
+        <v>0.96097845078626298</v>
+      </c>
+      <c r="D53">
+        <v>0.29109897365103199</v>
+      </c>
+      <c r="E53">
+        <v>-5.7686760888378298E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.66498921639109299</v>
+      </c>
+      <c r="B54">
+        <v>1382</v>
+      </c>
+      <c r="C54">
+        <v>0.72004608294930805</v>
+      </c>
+      <c r="D54">
+        <v>1.1009938701422299</v>
+      </c>
+      <c r="E54">
+        <v>1.32494519111619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4.4148810925369097E-2</v>
+      </c>
+      <c r="B55">
+        <v>1128</v>
+      </c>
+      <c r="C55">
+        <v>0.28222013170272497</v>
+      </c>
+      <c r="D55">
+        <v>-1.4650937012738701</v>
+      </c>
+      <c r="E55">
+        <v>-1.60412757973733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.95243782282864997</v>
+      </c>
+      <c r="B56">
+        <v>1512</v>
+      </c>
+      <c r="C56">
+        <v>0.70550100104871205</v>
+      </c>
+      <c r="D56">
+        <v>0.78078788595764403</v>
+      </c>
+      <c r="E56">
+        <v>1.1739089273880601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.61333489846226996</v>
+      </c>
+      <c r="B57">
+        <v>1344</v>
+      </c>
+      <c r="C57">
+        <v>0.58014410030877706</v>
+      </c>
+      <c r="D57">
+        <v>0.27125565115938399</v>
+      </c>
+      <c r="E57">
+        <v>-9.3031909945105795E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.51777299435686397</v>
+      </c>
+      <c r="B58">
+        <v>1210</v>
+      </c>
+      <c r="C58">
+        <v>0.55871123940776002</v>
+      </c>
+      <c r="D58">
+        <v>0.37330709572867798</v>
+      </c>
+      <c r="E58">
+        <v>0.34262431706639901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.39160355898527299</v>
+      </c>
+      <c r="B59">
+        <v>1068</v>
+      </c>
+      <c r="C59">
+        <v>0.259451445515197</v>
+      </c>
+      <c r="D59">
+        <v>-1.9044887422916901</v>
+      </c>
+      <c r="E59">
+        <v>-1.83918669131239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.42396421157275699</v>
+      </c>
+      <c r="B60">
+        <v>1300</v>
+      </c>
+      <c r="C60">
+        <v>0.35778175313059901</v>
+      </c>
+      <c r="D60">
+        <v>-2.32923775694357E-2</v>
+      </c>
+      <c r="E60">
+        <v>-0.22516183506896401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.38304169931226401</v>
+      </c>
+      <c r="B61">
+        <v>1204</v>
+      </c>
+      <c r="C61">
+        <v>0.50269968348537697</v>
+      </c>
+      <c r="D61">
+        <v>-4.3361373688328299E-2</v>
+      </c>
+      <c r="E61">
+        <v>-0.12967765839199699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.12084277577018</v>
+      </c>
+      <c r="B62">
+        <v>1466</v>
+      </c>
+      <c r="C62">
+        <v>1.4755065905961</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.31989143078712501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.0569351907934601</v>
+      </c>
+      <c r="B63">
+        <v>1473</v>
+      </c>
+      <c r="C63">
+        <v>1.22717170741135</v>
+      </c>
+      <c r="D63">
+        <v>0.70124966286073098</v>
+      </c>
+      <c r="E63">
+        <v>0.229095074455894</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.6591954357571099</v>
+      </c>
+      <c r="B64">
+        <v>1244</v>
+      </c>
+      <c r="C64">
+        <v>1.3769834032463999</v>
+      </c>
+      <c r="D64">
+        <v>0.28633604398121598</v>
+      </c>
+      <c r="E64">
+        <v>-1.1603849959521499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3.9439113548092299</v>
+      </c>
+      <c r="B65">
+        <v>1321</v>
+      </c>
+      <c r="C65">
+        <v>3.6390101892285198</v>
+      </c>
+      <c r="D65">
+        <v>-2.5853779157622898</v>
+      </c>
+      <c r="E65">
+        <v>-2.6070926966292101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.58322244557062397</v>
+      </c>
+      <c r="B66">
+        <v>1366</v>
+      </c>
+      <c r="C66">
+        <v>0.49674855491329201</v>
+      </c>
+      <c r="D66">
+        <v>0.79657725110480504</v>
+      </c>
+      <c r="E66">
+        <v>0.76390761211468305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.80424462440658895</v>
+      </c>
+      <c r="B67">
+        <v>1290</v>
+      </c>
+      <c r="C67">
+        <v>0.79379236532286801</v>
+      </c>
+      <c r="D67">
+        <v>0.44046761593439299</v>
+      </c>
+      <c r="E67">
+        <v>-0.955667640031854</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.54878563588776297</v>
+      </c>
+      <c r="B68">
+        <v>1423</v>
+      </c>
+      <c r="C68">
+        <v>0.49632352941176999</v>
+      </c>
+      <c r="D68">
+        <v>5.0380653828931601E-2</v>
+      </c>
+      <c r="E68">
+        <v>-0.74995427108103796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.76931684664018296</v>
+      </c>
+      <c r="B69">
+        <v>1452</v>
+      </c>
+      <c r="C69">
+        <v>0.48838923700700398</v>
+      </c>
+      <c r="D69">
+        <v>0.83562366397380605</v>
+      </c>
+      <c r="E69">
+        <v>-0.192572214580461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.96945257692094899</v>
+      </c>
+      <c r="B70">
+        <v>1528</v>
+      </c>
+      <c r="C70">
+        <v>0.96591944596318702</v>
+      </c>
+      <c r="D70">
+        <v>0.123095439997808</v>
+      </c>
+      <c r="E70">
+        <v>-0.12635379061371799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.17180724862963101</v>
+      </c>
+      <c r="B71">
+        <v>1156</v>
+      </c>
+      <c r="C71">
+        <v>3.5922766052991703E-2</v>
+      </c>
+      <c r="D71">
+        <v>0.68877273222259305</v>
+      </c>
+      <c r="E71">
+        <v>1.03240865427776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.19180376583731201</v>
+      </c>
+      <c r="B72">
+        <v>1066</v>
+      </c>
+      <c r="C72">
+        <v>0.399290150842948</v>
+      </c>
+      <c r="D72">
+        <v>-1.0866048317515</v>
+      </c>
+      <c r="E72">
+        <v>-0.74237737516571201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.638820638820632</v>
+      </c>
+      <c r="B73">
+        <v>1407</v>
+      </c>
+      <c r="C73">
+        <v>0.76110315186245903</v>
+      </c>
+      <c r="D73">
+        <v>-1.0796440972222101</v>
+      </c>
+      <c r="E73">
+        <v>-1.5018217364258399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.75138485164261204</v>
+      </c>
+      <c r="B74">
+        <v>1331</v>
+      </c>
+      <c r="C74">
+        <v>0.69469505593648095</v>
+      </c>
+      <c r="D74">
+        <v>0.59608056614044502</v>
+      </c>
+      <c r="E74">
+        <v>0.38527013708449598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.47815868384795601</v>
+      </c>
+      <c r="B75">
+        <v>1174</v>
+      </c>
+      <c r="C75">
+        <v>0.16113150120849201</v>
+      </c>
+      <c r="D75">
+        <v>8.0658170672692195E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.911609616587716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.28319355190065398</v>
+      </c>
+      <c r="B76">
+        <v>1207</v>
+      </c>
+      <c r="C76">
+        <v>0.35112991806968602</v>
+      </c>
+      <c r="D76">
+        <v>-0.19278809601389599</v>
+      </c>
+      <c r="E76">
+        <v>-0.27812668221782499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.74254742547425701</v>
+      </c>
+      <c r="B77">
+        <v>1298</v>
+      </c>
+      <c r="C77">
+        <v>0.52031936843993698</v>
+      </c>
+      <c r="D77">
+        <v>0.115672244041536</v>
+      </c>
+      <c r="E77">
+        <v>-0.267737617135205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.44065883870273898</v>
+      </c>
+      <c r="B78">
+        <v>1071</v>
+      </c>
+      <c r="C78">
+        <v>0.46532438478746802</v>
+      </c>
+      <c r="D78">
+        <v>-0.62866161953934396</v>
+      </c>
+      <c r="E78">
+        <v>8.9070989578739698E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.382475660639779</v>
+      </c>
+      <c r="B79">
+        <v>1106</v>
+      </c>
+      <c r="C79">
+        <v>0.387870239774328</v>
+      </c>
+      <c r="D79">
+        <v>-1.7372305560736401</v>
+      </c>
+      <c r="E79">
+        <v>-0.81664910432033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.21064272361040401</v>
+      </c>
+      <c r="B80">
+        <v>1308</v>
+      </c>
+      <c r="C80">
+        <v>0.162420926654126</v>
+      </c>
+      <c r="D80">
+        <v>-0.55965737407708904</v>
+      </c>
+      <c r="E80">
+        <v>-0.47793803874712099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.70268831514505803</v>
+      </c>
+      <c r="B81">
+        <v>1231</v>
+      </c>
+      <c r="C81">
+        <v>0.79507566042575595</v>
+      </c>
+      <c r="D81">
+        <v>8.1936882169477795E-2</v>
+      </c>
+      <c r="E81">
+        <v>-4.2408821034784799E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.26535549832202598</v>
+      </c>
+      <c r="B82">
+        <v>1113</v>
+      </c>
+      <c r="C82">
+        <v>0.28725920919229703</v>
+      </c>
+      <c r="D82">
+        <v>-0.42033159492488598</v>
+      </c>
+      <c r="E82">
+        <v>-0.65711878685762504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.52081942255815505</v>
+      </c>
+      <c r="B83">
+        <v>1046</v>
+      </c>
+      <c r="C83">
+        <v>0.84834703515829801</v>
+      </c>
+      <c r="D83">
+        <v>0.33744287384418598</v>
+      </c>
+      <c r="E83">
+        <v>0.60705923163646003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.98629988921015799</v>
+      </c>
+      <c r="B84">
+        <v>1485</v>
+      </c>
+      <c r="C84">
+        <v>0.81717812744501195</v>
+      </c>
+      <c r="D84">
+        <v>0.67162581611901695</v>
+      </c>
+      <c r="E84">
+        <v>-0.43114598603087001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.90901841958375396</v>
+      </c>
+      <c r="B85">
+        <v>1296</v>
+      </c>
+      <c r="C85">
+        <v>0.78808348488784596</v>
+      </c>
+      <c r="D85">
+        <v>0.50046095087581499</v>
+      </c>
+      <c r="E85">
+        <v>-0.49836741708197102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.520469199098886</v>
+      </c>
+      <c r="B86">
+        <v>1282</v>
+      </c>
+      <c r="C86">
+        <v>0.68421964316646999</v>
+      </c>
+      <c r="D86">
+        <v>-0.12622359608449399</v>
+      </c>
+      <c r="E86">
+        <v>-0.49892473118279401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428F6C83-FA2D-4906-9B03-3C7C502C63E0}">
   <dimension ref="A1:V255"/>
   <sheetViews>
@@ -1333,37 +4857,37 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
       </c>
       <c r="L1">
         <v>324.12</v>
@@ -1443,7 +4967,7 @@
         <v>-0.59000000000003183</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2367,7 +5891,7 @@
         <v>2.5200000000000387</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O23" s="1">
         <v>-1.096641891820504E-18</v>
@@ -2431,7 +5955,7 @@
         <v>-4.3100000000000023</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O24" s="1">
         <v>-7.4465229661810777E-18</v>
@@ -2495,7 +6019,7 @@
         <v>1.0699999999999932</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O25" s="1">
         <v>5.4885212901038108E-18</v>
@@ -2559,7 +6083,7 @@
         <v>-3.7800000000000296</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O26" s="1">
         <v>-4.6875728290936474E-18</v>
@@ -2623,7 +6147,7 @@
         <v>6.339999999999975</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O27" s="1">
         <v>1.0000000000000007</v>
@@ -2687,7 +6211,7 @@
         <v>7.8899999999999864</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O28" s="1">
         <v>1.5175695829052297E-16</v>
@@ -2751,7 +6275,7 @@
         <v>-6.2300000000000182</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O29" s="1">
         <v>2.20307705806305E-16</v>
@@ -2815,7 +6339,7 @@
         <v>1.3300000000000125</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O30" s="1">
         <v>-1.0000000000000007</v>
@@ -2879,7 +6403,7 @@
         <v>-7.7600000000000193</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O31" s="1">
         <v>9.005214545618804E-23</v>
@@ -2943,7 +6467,7 @@
         <v>-3.75</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O32" s="2">
         <v>6.0285270742264601E-16</v>
@@ -11226,12 +14750,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA8221-BEE2-4C15-AEED-B4A5306DD489}">
   <dimension ref="A1:AB255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11253,40 +14777,40 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
       <c r="J1">
         <v>324.12</v>
       </c>
       <c r="AA1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -11316,7 +14840,7 @@
         <v>1.2186844378625166</v>
       </c>
       <c r="I2">
-        <f>AA2-AB2</f>
+        <f t="shared" ref="I2:I65" si="0">AA2-AB2</f>
         <v>-0.99000000000000909</v>
       </c>
       <c r="AA2">
@@ -11349,11 +14873,11 @@
         <v>65951146</v>
       </c>
       <c r="H3">
-        <f>((AA3-AB2)/AB2*100)</f>
+        <f t="shared" ref="H3:H66" si="1">((AA3-AB2)/AB2*100)</f>
         <v>0.97550598675013056</v>
       </c>
       <c r="I3">
-        <f>AA3-AB3</f>
+        <f t="shared" si="0"/>
         <v>-0.59000000000003183</v>
       </c>
       <c r="AA3">
@@ -11386,11 +14910,11 @@
         <v>50359688</v>
       </c>
       <c r="H4">
-        <f>((AA4-AB3)/AB3*100)</f>
+        <f t="shared" si="1"/>
         <v>0.31544793606922167</v>
       </c>
       <c r="I4">
-        <f>AA4-AB4</f>
+        <f t="shared" si="0"/>
         <v>-6.9999999999993179E-2</v>
       </c>
       <c r="AA4">
@@ -11423,11 +14947,11 @@
         <v>64139443</v>
       </c>
       <c r="H5">
-        <f>((AA5-AB4)/AB4*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.3473261871968456</v>
       </c>
       <c r="I5">
-        <f>AA5-AB5</f>
+        <f t="shared" si="0"/>
         <v>0.62000000000000455</v>
       </c>
       <c r="AA5">
@@ -11460,11 +14984,11 @@
         <v>42070006</v>
       </c>
       <c r="H6">
-        <f>((AA6-AB5)/AB5*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.29199277543647517</v>
       </c>
       <c r="I6">
-        <f>AA6-AB6</f>
+        <f t="shared" si="0"/>
         <v>-3.4499999999999886</v>
       </c>
       <c r="AA6">
@@ -11497,11 +15021,11 @@
         <v>54864533</v>
       </c>
       <c r="H7">
-        <f>((AA7-AB6)/AB6*100)</f>
+        <f t="shared" si="1"/>
         <v>0.44221345763117548</v>
       </c>
       <c r="I7">
-        <f>AA7-AB7</f>
+        <f t="shared" si="0"/>
         <v>0.90000000000003411</v>
       </c>
       <c r="AA7">
@@ -11534,11 +15058,11 @@
         <v>43992662</v>
       </c>
       <c r="H8">
-        <f>((AA8-AB7)/AB7*100)</f>
+        <f t="shared" si="1"/>
         <v>0.46829326492871004</v>
       </c>
       <c r="I8">
-        <f>AA8-AB8</f>
+        <f t="shared" si="0"/>
         <v>-0.59000000000003183</v>
       </c>
       <c r="AA8">
@@ -11571,11 +15095,11 @@
         <v>54501922</v>
       </c>
       <c r="H9">
-        <f>((AA9-AB8)/AB8*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.46170944223816546</v>
       </c>
       <c r="I9">
-        <f>AA9-AB9</f>
+        <f t="shared" si="0"/>
         <v>-1.1979000000000042</v>
       </c>
       <c r="K9" t="s">
@@ -11611,11 +15135,11 @@
         <v>64582210</v>
       </c>
       <c r="H10">
-        <f>((AA10-AB9)/AB9*100)</f>
+        <f t="shared" si="1"/>
         <v>0.13350738740876658</v>
       </c>
       <c r="I10">
-        <f>AA10-AB10</f>
+        <f t="shared" si="0"/>
         <v>-9.0000000000031832E-2</v>
       </c>
       <c r="AA10">
@@ -11648,11 +15172,11 @@
         <v>57342526</v>
       </c>
       <c r="H11">
-        <f>((AA11-AB10)/AB10*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.32286729857820845</v>
       </c>
       <c r="I11">
-        <f>AA11-AB11</f>
+        <f t="shared" si="0"/>
         <v>-0.22000000000002728</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -11689,11 +15213,11 @@
         <v>48814692</v>
       </c>
       <c r="H12">
-        <f>((AA12-AB11)/AB11*100)</f>
+        <f t="shared" si="1"/>
         <v>0.31479226680129546</v>
       </c>
       <c r="I12">
-        <f>AA12-AB12</f>
+        <f t="shared" si="0"/>
         <v>-0.54999999999995453</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -11732,11 +15256,11 @@
         <v>74163362</v>
       </c>
       <c r="H13">
-        <f>((AA13-AB12)/AB12*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.17665661760358659</v>
       </c>
       <c r="I13">
-        <f>AA13-AB13</f>
+        <f t="shared" si="0"/>
         <v>0.79230000000001155</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -11775,11 +15299,11 @@
         <v>113788208</v>
       </c>
       <c r="H14">
-        <f>((AA14-AB13)/AB13*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.43923430776078393</v>
       </c>
       <c r="I14">
-        <f>AA14-AB14</f>
+        <f t="shared" si="0"/>
         <v>1.9900000000000091</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -11818,11 +15342,11 @@
         <v>161088409</v>
       </c>
       <c r="H15">
-        <f>((AA15-AB14)/AB14*100)</f>
+        <f t="shared" si="1"/>
         <v>-3.1006357202830848</v>
       </c>
       <c r="I15">
-        <f>AA15-AB15</f>
+        <f t="shared" si="0"/>
         <v>0.71999999999997044</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -11861,11 +15385,11 @@
         <v>218913168</v>
       </c>
       <c r="H16">
-        <f>((AA16-AB15)/AB15*100)</f>
+        <f t="shared" si="1"/>
         <v>0.47143477451770416</v>
       </c>
       <c r="I16">
-        <f>AA16-AB16</f>
+        <f t="shared" si="0"/>
         <v>11.29000000000002</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -11904,11 +15428,11 @@
         <v>194773819</v>
       </c>
       <c r="H17">
-        <f>((AA17-AB16)/AB16*100)</f>
+        <f t="shared" si="1"/>
         <v>0.48936510474972966</v>
       </c>
       <c r="I17">
-        <f>AA17-AB17</f>
+        <f t="shared" si="0"/>
         <v>2.6800000000000068</v>
       </c>
       <c r="AA17">
@@ -11941,11 +15465,11 @@
         <v>284353459</v>
       </c>
       <c r="H18">
-        <f>((AA18-AB17)/AB17*100)</f>
+        <f t="shared" si="1"/>
         <v>-1.9390048154093165</v>
       </c>
       <c r="I18">
-        <f>AA18-AB18</f>
+        <f t="shared" si="0"/>
         <v>7.9499999999999886</v>
       </c>
       <c r="K18" t="s">
@@ -11981,11 +15505,11 @@
         <v>385764020</v>
       </c>
       <c r="H19">
-        <f>((AA19-AB18)/AB18*100)</f>
+        <f t="shared" si="1"/>
         <v>-2.9612450001680624</v>
       </c>
       <c r="I19">
-        <f>AA19-AB19</f>
+        <f t="shared" si="0"/>
         <v>-7.5600000000000023</v>
       </c>
       <c r="K19" s="3"/>
@@ -12034,11 +15558,11 @@
         <v>238703625</v>
       </c>
       <c r="H20">
-        <f>((AA20-AB19)/AB19*100)</f>
+        <f t="shared" si="1"/>
         <v>0.65820563018969447</v>
       </c>
       <c r="I20">
-        <f>AA20-AB20</f>
+        <f t="shared" si="0"/>
         <v>-10.879999999999995</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -12089,11 +15613,11 @@
         <v>300139149</v>
       </c>
       <c r="H21">
-        <f>((AA21-AB20)/AB20*100)</f>
+        <f t="shared" si="1"/>
         <v>0.13264744896309327</v>
       </c>
       <c r="I21">
-        <f>AA21-AB21</f>
+        <f t="shared" si="0"/>
         <v>9.2599999999999909</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -12140,11 +15664,11 @@
         <v>176613448</v>
       </c>
       <c r="H22">
-        <f>((AA22-AB21)/AB21*100)</f>
+        <f t="shared" si="1"/>
         <v>1.9584332533972806</v>
       </c>
       <c r="I22">
-        <f>AA22-AB22</f>
+        <f t="shared" si="0"/>
         <v>-6.7400000000000091</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -12189,11 +15713,11 @@
         <v>186366809</v>
       </c>
       <c r="H23">
-        <f>((AA23-AB22)/AB22*100)</f>
+        <f t="shared" si="1"/>
         <v>-2.5186984593747987</v>
       </c>
       <c r="I23">
-        <f>AA23-AB23</f>
+        <f t="shared" si="0"/>
         <v>2.5200000000000387</v>
       </c>
       <c r="AA23">
@@ -12226,11 +15750,11 @@
         <v>228667168</v>
       </c>
       <c r="H24">
-        <f>((AA24-AB23)/AB23*100)</f>
+        <f t="shared" si="1"/>
         <v>-3.0780929709713689</v>
       </c>
       <c r="I24">
-        <f>AA24-AB24</f>
+        <f t="shared" si="0"/>
         <v>-4.3100000000000023</v>
       </c>
       <c r="K24" s="3"/>
@@ -12288,11 +15812,11 @@
         <v>309417349</v>
       </c>
       <c r="H25">
-        <f>((AA25-AB24)/AB24*100)</f>
+        <f t="shared" si="1"/>
         <v>-7.4497411416660952</v>
       </c>
       <c r="I25">
-        <f>AA25-AB25</f>
+        <f t="shared" si="0"/>
         <v>1.0699999999999932</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -12352,15 +15876,15 @@
         <v>276444058</v>
       </c>
       <c r="H26">
-        <f>((AA26-AB25)/AB25*100)</f>
+        <f t="shared" si="1"/>
         <v>3.7960835794770693</v>
       </c>
       <c r="I26">
-        <f>AA26-AB26</f>
+        <f t="shared" si="0"/>
         <v>-3.7800000000000296</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L26" s="1">
         <v>1.6214015906322776E-3</v>
@@ -12416,15 +15940,15 @@
         <v>256416563</v>
       </c>
       <c r="H27">
-        <f>((AA27-AB26)/AB26*100)</f>
+        <f t="shared" si="1"/>
         <v>-2.676652104569734</v>
       </c>
       <c r="I27">
-        <f>AA27-AB27</f>
+        <f t="shared" si="0"/>
         <v>6.339999999999975</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="1">
         <v>-3.9414379835105975E-3</v>
@@ -12480,15 +16004,15 @@
         <v>392220669</v>
       </c>
       <c r="H28">
-        <f>((AA28-AB27)/AB27*100)</f>
+        <f t="shared" si="1"/>
         <v>-6.6919376002332749</v>
       </c>
       <c r="I28">
-        <f>AA28-AB28</f>
+        <f t="shared" si="0"/>
         <v>7.8899999999999864</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="1">
         <v>-6.6607759179614827E-3</v>
@@ -12544,15 +16068,15 @@
         <v>329566100</v>
       </c>
       <c r="H29">
-        <f>((AA29-AB28)/AB28*100)</f>
+        <f t="shared" si="1"/>
         <v>6.0376445931240017</v>
       </c>
       <c r="I29">
-        <f>AA29-AB29</f>
+        <f t="shared" si="0"/>
         <v>-6.2300000000000182</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L29" s="1">
         <v>-2.2319414554071377E-3</v>
@@ -12608,15 +16132,15 @@
         <v>297240027</v>
       </c>
       <c r="H30">
-        <f>((AA30-AB29)/AB29*100)</f>
+        <f t="shared" si="1"/>
         <v>-10.448537056289911</v>
       </c>
       <c r="I30">
-        <f>AA30-AB30</f>
+        <f t="shared" si="0"/>
         <v>1.3300000000000125</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L30" s="1">
         <v>-0.16586741560051593</v>
@@ -12672,15 +16196,15 @@
         <v>262070471</v>
       </c>
       <c r="H31">
-        <f>((AA31-AB30)/AB30*100)</f>
+        <f t="shared" si="1"/>
         <v>2.1638524077548462</v>
       </c>
       <c r="I31">
-        <f>AA31-AB31</f>
+        <f t="shared" si="0"/>
         <v>-7.7600000000000193</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31" s="1">
         <v>0.17603559010269226</v>
@@ -12736,15 +16260,15 @@
         <v>327597131</v>
       </c>
       <c r="H32">
-        <f>((AA32-AB31)/AB31*100)</f>
+        <f t="shared" si="1"/>
         <v>-6.5466772151898773</v>
       </c>
       <c r="I32">
-        <f>AA32-AB32</f>
+        <f t="shared" si="0"/>
         <v>-3.75</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L32" s="1">
         <v>1.5922971303550725E-8</v>
@@ -12800,15 +16324,15 @@
         <v>289322037</v>
       </c>
       <c r="H33">
-        <f>((AA33-AB32)/AB32*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.3125</v>
       </c>
       <c r="I33">
-        <f>AA33-AB33</f>
+        <f t="shared" si="0"/>
         <v>-1.2599999999999909</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="2">
         <v>-0.21548059816054993</v>
@@ -12864,11 +16388,11 @@
         <v>347158794</v>
       </c>
       <c r="H34">
-        <f>((AA34-AB33)/AB33*100)</f>
+        <f t="shared" si="1"/>
         <v>0.83988191759178843</v>
       </c>
       <c r="I34">
-        <f>AA34-AB34</f>
+        <f t="shared" si="0"/>
         <v>13.72999999999999</v>
       </c>
       <c r="AA34">
@@ -12901,11 +16425,11 @@
         <v>326025169</v>
       </c>
       <c r="H35">
-        <f>((AA35-AB34)/AB34*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.26660839160839755</v>
       </c>
       <c r="I35">
-        <f>AA35-AB35</f>
+        <f t="shared" si="0"/>
         <v>5.2400000000000091</v>
       </c>
       <c r="AA35">
@@ -12938,11 +16462,11 @@
         <v>235494475</v>
       </c>
       <c r="H36">
-        <f>((AA36-AB35)/AB35*100)</f>
+        <f t="shared" si="1"/>
         <v>5.1446512671002465</v>
       </c>
       <c r="I36">
-        <f>AA36-AB36</f>
+        <f t="shared" si="0"/>
         <v>-8.7300000000000182</v>
       </c>
       <c r="AA36">
@@ -12975,11 +16499,11 @@
         <v>299430255</v>
       </c>
       <c r="H37">
-        <f>((AA37-AB36)/AB36*100)</f>
+        <f t="shared" si="1"/>
         <v>0.70738227431626521</v>
       </c>
       <c r="I37">
-        <f>AA37-AB37</f>
+        <f t="shared" si="0"/>
         <v>-1.9199999999999875</v>
       </c>
       <c r="AA37">
@@ -13012,11 +16536,11 @@
         <v>257632816</v>
       </c>
       <c r="H38">
-        <f>((AA38-AB37)/AB37*100)</f>
+        <f t="shared" si="1"/>
         <v>1.1062036549292995</v>
       </c>
       <c r="I38">
-        <f>AA38-AB38</f>
+        <f t="shared" si="0"/>
         <v>-11.679999999999978</v>
       </c>
       <c r="AA38">
@@ -13049,11 +16573,11 @@
         <v>224341217</v>
       </c>
       <c r="H39">
-        <f>((AA39-AB38)/AB38*100)</f>
+        <f t="shared" si="1"/>
         <v>-3.0359877488514466</v>
       </c>
       <c r="I39">
-        <f>AA39-AB39</f>
+        <f t="shared" si="0"/>
         <v>-0.14999999999997726</v>
       </c>
       <c r="AA39">
@@ -13086,11 +16610,11 @@
         <v>170961866</v>
       </c>
       <c r="H40">
-        <f>((AA40-AB39)/AB39*100)</f>
+        <f t="shared" si="1"/>
         <v>0.89969221055954585</v>
       </c>
       <c r="I40">
-        <f>AA40-AB40</f>
+        <f t="shared" si="0"/>
         <v>-5.9499999999999886</v>
       </c>
       <c r="AA40">
@@ -13123,11 +16647,11 @@
         <v>194881060</v>
       </c>
       <c r="H41">
-        <f>((AA41-AB40)/AB40*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.41658704376073957</v>
       </c>
       <c r="I41">
-        <f>AA41-AB41</f>
+        <f t="shared" si="0"/>
         <v>2.8100000000000023</v>
       </c>
       <c r="AA41">
@@ -13160,11 +16684,11 @@
         <v>189554623</v>
       </c>
       <c r="H42">
-        <f>((AA42-AB41)/AB41*100)</f>
+        <f t="shared" si="1"/>
         <v>-3.7904946653734277</v>
       </c>
       <c r="I42">
-        <f>AA42-AB42</f>
+        <f t="shared" si="0"/>
         <v>1.8299999999999841</v>
       </c>
       <c r="AA42">
@@ -13197,11 +16721,11 @@
         <v>177660430</v>
       </c>
       <c r="H43">
-        <f>((AA43-AB42)/AB42*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.39000609384521956</v>
       </c>
       <c r="I43">
-        <f>AA43-AB43</f>
+        <f t="shared" si="0"/>
         <v>-6.6400000000000148</v>
       </c>
       <c r="AA43">
@@ -13234,11 +16758,11 @@
         <v>135561171</v>
       </c>
       <c r="H44">
-        <f>((AA44-AB43)/AB43*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.42488980661558257</v>
       </c>
       <c r="I44">
-        <f>AA44-AB44</f>
+        <f t="shared" si="0"/>
         <v>2.5699999999999932</v>
       </c>
       <c r="AA44">
@@ -13271,11 +16795,11 @@
         <v>188061238</v>
       </c>
       <c r="H45">
-        <f>((AA45-AB44)/AB44*100)</f>
+        <f t="shared" si="1"/>
         <v>3.8881502075023078</v>
       </c>
       <c r="I45">
-        <f>AA45-AB45</f>
+        <f t="shared" si="0"/>
         <v>-7.0200000000000387</v>
       </c>
       <c r="AA45">
@@ -13308,11 +16832,11 @@
         <v>201427189</v>
       </c>
       <c r="H46">
-        <f>((AA46-AB45)/AB45*100)</f>
+        <f t="shared" si="1"/>
         <v>3.5301668806161617</v>
       </c>
       <c r="I46">
-        <f>AA46-AB46</f>
+        <f t="shared" si="0"/>
         <v>9.0799999999999841</v>
       </c>
       <c r="AA46">
@@ -13345,11 +16869,11 @@
         <v>153774487</v>
       </c>
       <c r="H47">
-        <f>((AA47-AB46)/AB46*100)</f>
+        <f t="shared" si="1"/>
         <v>1.0674008976728337</v>
       </c>
       <c r="I47">
-        <f>AA47-AB47</f>
+        <f t="shared" si="0"/>
         <v>-6.0699999999999932</v>
       </c>
       <c r="AA47">
@@ -13382,11 +16906,11 @@
         <v>190282705</v>
       </c>
       <c r="H48">
-        <f>((AA48-AB47)/AB47*100)</f>
+        <f t="shared" si="1"/>
         <v>1.2954785972338838</v>
       </c>
       <c r="I48">
-        <f>AA48-AB48</f>
+        <f t="shared" si="0"/>
         <v>-0.62000000000000455</v>
       </c>
       <c r="AA48">
@@ -13419,11 +16943,11 @@
         <v>114839053</v>
       </c>
       <c r="H49">
-        <f>((AA49-AB48)/AB48*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.38102084831056876</v>
       </c>
       <c r="I49">
-        <f>AA49-AB49</f>
+        <f t="shared" si="0"/>
         <v>1.4799999999999613</v>
       </c>
       <c r="AA49">
@@ -13456,11 +16980,11 @@
         <v>134143350</v>
       </c>
       <c r="H50">
-        <f>((AA50-AB49)/AB49*100)</f>
+        <f t="shared" si="1"/>
         <v>1.9299136617572346</v>
       </c>
       <c r="I50">
-        <f>AA50-AB50</f>
+        <f t="shared" si="0"/>
         <v>-2.8100000000000023</v>
       </c>
       <c r="AA50">
@@ -13493,11 +17017,11 @@
         <v>121775006</v>
       </c>
       <c r="H51">
-        <f>((AA51-AB50)/AB50*100)</f>
+        <f t="shared" si="1"/>
         <v>-2.1917615137954214</v>
       </c>
       <c r="I51">
-        <f>AA51-AB51</f>
+        <f t="shared" si="0"/>
         <v>-0.18999999999999773</v>
       </c>
       <c r="AA51">
@@ -13530,11 +17054,11 @@
         <v>131798325</v>
       </c>
       <c r="H52">
-        <f>((AA52-AB51)/AB51*100)</f>
+        <f t="shared" si="1"/>
         <v>0.50043202764976469</v>
       </c>
       <c r="I52">
-        <f>AA52-AB52</f>
+        <f t="shared" si="0"/>
         <v>4.9999999999954525E-2</v>
       </c>
       <c r="AA52">
@@ -13567,11 +17091,11 @@
         <v>146684784</v>
       </c>
       <c r="H53">
-        <f>((AA53-AB52)/AB52*100)</f>
+        <f t="shared" si="1"/>
         <v>2.2500895736295137</v>
       </c>
       <c r="I53">
-        <f>AA53-AB53</f>
+        <f t="shared" si="0"/>
         <v>-1.2599999999999909</v>
       </c>
       <c r="AA53">
@@ -13604,11 +17128,11 @@
         <v>100109285</v>
       </c>
       <c r="H54">
-        <f>((AA54-AB53)/AB53*100)</f>
+        <f t="shared" si="1"/>
         <v>-1.4059447390454831</v>
       </c>
       <c r="I54">
-        <f>AA54-AB54</f>
+        <f t="shared" si="0"/>
         <v>1.0200000000000387</v>
       </c>
       <c r="AA54">
@@ -13641,11 +17165,11 @@
         <v>126385698</v>
       </c>
       <c r="H55">
-        <f>((AA55-AB54)/AB54*100)</f>
+        <f t="shared" si="1"/>
         <v>-1.7259135622713724</v>
       </c>
       <c r="I55">
-        <f>AA55-AB55</f>
+        <f t="shared" si="0"/>
         <v>3.6899999999999977</v>
       </c>
       <c r="AA55">
@@ -13678,11 +17202,11 @@
         <v>93524584</v>
       </c>
       <c r="H56">
-        <f>((AA56-AB55)/AB55*100)</f>
+        <f t="shared" si="1"/>
         <v>1.944769997070027</v>
       </c>
       <c r="I56">
-        <f>AA56-AB56</f>
+        <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
       <c r="AA56">
@@ -13715,11 +17239,11 @@
         <v>104709693</v>
       </c>
       <c r="H57">
-        <f>((AA57-AB56)/AB56*100)</f>
+        <f t="shared" si="1"/>
         <v>0.49802938015047882</v>
       </c>
       <c r="I57">
-        <f>AA57-AB57</f>
+        <f t="shared" si="0"/>
         <v>1.410000000000025</v>
       </c>
       <c r="AA57">
@@ -13752,11 +17276,11 @@
         <v>85165953</v>
       </c>
       <c r="H58">
-        <f>((AA58-AB57)/AB57*100)</f>
+        <f t="shared" si="1"/>
         <v>0.59122832162821926</v>
       </c>
       <c r="I58">
-        <f>AA58-AB58</f>
+        <f t="shared" si="0"/>
         <v>-2.2400000000000091</v>
       </c>
       <c r="AA58">
@@ -13789,11 +17313,11 @@
         <v>77896608</v>
       </c>
       <c r="H59">
-        <f>((AA59-AB58)/AB58*100)</f>
+        <f t="shared" si="1"/>
         <v>0.75979785843021419</v>
       </c>
       <c r="I59">
-        <f>AA59-AB59</f>
+        <f t="shared" si="0"/>
         <v>-1.9300000000000068</v>
       </c>
       <c r="AA59">
@@ -13826,11 +17350,11 @@
         <v>105269985</v>
       </c>
       <c r="H60">
-        <f>((AA60-AB59)/AB59*100)</f>
+        <f t="shared" si="1"/>
         <v>1.3830343145793311</v>
       </c>
       <c r="I60">
-        <f>AA60-AB60</f>
+        <f t="shared" si="0"/>
         <v>5.2899999999999636</v>
       </c>
       <c r="AA60">
@@ -13863,11 +17387,11 @@
         <v>118745579</v>
       </c>
       <c r="H61">
-        <f>((AA61-AB60)/AB60*100)</f>
+        <f t="shared" si="1"/>
         <v>2.029888356140396</v>
       </c>
       <c r="I61">
-        <f>AA61-AB61</f>
+        <f t="shared" si="0"/>
         <v>-1.6800000000000068</v>
       </c>
       <c r="AA61">
@@ -13900,11 +17424,11 @@
         <v>122901701</v>
       </c>
       <c r="H62">
-        <f>((AA62-AB61)/AB61*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.51157873196684978</v>
       </c>
       <c r="I62">
-        <f>AA62-AB62</f>
+        <f t="shared" si="0"/>
         <v>1.2299999999999613</v>
       </c>
       <c r="AA62">
@@ -13937,11 +17461,11 @@
         <v>125180028</v>
       </c>
       <c r="H63">
-        <f>((AA63-AB62)/AB62*100)</f>
+        <f t="shared" si="1"/>
         <v>-1.7798127237675625</v>
       </c>
       <c r="I63">
-        <f>AA63-AB63</f>
+        <f t="shared" si="0"/>
         <v>2.5199999999999818</v>
       </c>
       <c r="AA63">
@@ -13974,11 +17498,11 @@
         <v>80873213</v>
       </c>
       <c r="H64">
-        <f>((AA64-AB63)/AB63*100)</f>
+        <f t="shared" si="1"/>
         <v>-0.72491955161073984</v>
       </c>
       <c r="I64">
-        <f>AA64-AB64</f>
+        <f t="shared" si="0"/>
         <v>-2.8299999999999841</v>
       </c>
       <c r="AA64">
@@ -14011,11 +17535,11 @@
         <v>79569938</v>
       </c>
       <c r="H65">
-        <f>((AA65-AB64)/AB64*100)</f>
+        <f t="shared" si="1"/>
         <v>1.082625101385899</v>
       </c>
       <c r="I65">
-        <f>AA65-AB65</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999998863</v>
       </c>
       <c r="AA65">
@@ -14048,11 +17572,11 @@
         <v>73632628</v>
       </c>
       <c r="H66">
-        <f>((AA66-AB65)/AB65*100)</f>
+        <f t="shared" si="1"/>
         <v>0.6464237045319623</v>
       </c>
       <c r="I66">
-        <f>AA66-AB66</f>
+        <f t="shared" ref="I66:I129" si="2">AA66-AB66</f>
         <v>3.7900000000000205</v>
       </c>
       <c r="AA66">
@@ -14085,11 +17609,11 @@
         <v>75250412</v>
       </c>
       <c r="H67">
-        <f>((AA67-AB66)/AB66*100)</f>
+        <f t="shared" ref="H67:H130" si="3">((AA67-AB66)/AB66*100)</f>
         <v>1.2313104661389622</v>
       </c>
       <c r="I67">
-        <f>AA67-AB67</f>
+        <f t="shared" si="2"/>
         <v>6.9999999999993179E-2</v>
       </c>
       <c r="AA67">
@@ -14122,11 +17646,11 @@
         <v>76622128</v>
       </c>
       <c r="H68">
-        <f>((AA68-AB67)/AB67*100)</f>
+        <f t="shared" si="3"/>
         <v>1.1853448275861957</v>
       </c>
       <c r="I68">
-        <f>AA68-AB68</f>
+        <f t="shared" si="2"/>
         <v>-1.3500000000000227</v>
       </c>
       <c r="AA68">
@@ -14159,11 +17683,11 @@
         <v>79514231</v>
       </c>
       <c r="H69">
-        <f>((AA69-AB68)/AB68*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.71809601969635573</v>
       </c>
       <c r="I69">
-        <f>AA69-AB69</f>
+        <f t="shared" si="2"/>
         <v>-2.160000000000025</v>
       </c>
       <c r="AA69">
@@ -14196,11 +17720,11 @@
         <v>95870786</v>
       </c>
       <c r="H70">
-        <f>((AA70-AB69)/AB69*100)</f>
+        <f t="shared" si="3"/>
         <v>0.44102564102564801</v>
       </c>
       <c r="I70">
-        <f>AA70-AB70</f>
+        <f t="shared" si="2"/>
         <v>7.1200000000000045</v>
       </c>
       <c r="AA70">
@@ -14233,11 +17757,11 @@
         <v>144721099</v>
       </c>
       <c r="H71">
-        <f>((AA71-AB70)/AB70*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.21278822339275599</v>
       </c>
       <c r="I71">
-        <f>AA71-AB71</f>
+        <f t="shared" si="2"/>
         <v>4.4599999999999795</v>
       </c>
       <c r="AA71">
@@ -14270,11 +17794,11 @@
         <v>121977890</v>
       </c>
       <c r="H72">
-        <f>((AA72-AB71)/AB71*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.94105113636364834</v>
       </c>
       <c r="I72">
-        <f>AA72-AB72</f>
+        <f t="shared" si="2"/>
         <v>-6.0200000000000387</v>
       </c>
       <c r="AA72">
@@ -14307,11 +17831,11 @@
         <v>111146276</v>
       </c>
       <c r="H73">
-        <f>((AA73-AB72)/AB72*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.91237674141138458</v>
       </c>
       <c r="I73">
-        <f>AA73-AB73</f>
+        <f t="shared" si="2"/>
         <v>-3.9099999999999682</v>
       </c>
       <c r="AA73">
@@ -14344,11 +17868,11 @@
         <v>120320229</v>
       </c>
       <c r="H74">
-        <f>((AA74-AB73)/AB73*100)</f>
+        <f t="shared" si="3"/>
         <v>2.364817661031172</v>
       </c>
       <c r="I74">
-        <f>AA74-AB74</f>
+        <f t="shared" si="2"/>
         <v>-1.9499999999999886</v>
       </c>
       <c r="AA74">
@@ -14381,11 +17905,11 @@
         <v>95189316</v>
       </c>
       <c r="H75">
-        <f>((AA75-AB74)/AB74*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.22033898305083974</v>
       </c>
       <c r="I75">
-        <f>AA75-AB75</f>
+        <f t="shared" si="2"/>
         <v>2.3799999999999955</v>
       </c>
       <c r="AA75">
@@ -14418,11 +17942,11 @@
         <v>85861691</v>
       </c>
       <c r="H76">
-        <f>((AA76-AB75)/AB75*100)</f>
+        <f t="shared" si="3"/>
         <v>1.3186286262287104</v>
       </c>
       <c r="I76">
-        <f>AA76-AB76</f>
+        <f t="shared" si="2"/>
         <v>-1.1100000000000136</v>
       </c>
       <c r="AA76">
@@ -14455,11 +17979,11 @@
         <v>78293925</v>
       </c>
       <c r="H77">
-        <f>((AA77-AB76)/AB76*100)</f>
+        <f t="shared" si="3"/>
         <v>-4.7149159734612991E-2</v>
       </c>
       <c r="I77">
-        <f>AA77-AB77</f>
+        <f t="shared" si="2"/>
         <v>1.910000000000025</v>
       </c>
       <c r="AA77">
@@ -14492,11 +18016,11 @@
         <v>63958200</v>
       </c>
       <c r="H78">
-        <f>((AA78-AB77)/AB77*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.10512750949538874</v>
       </c>
       <c r="I78">
-        <f>AA78-AB78</f>
+        <f t="shared" si="2"/>
         <v>-0.87000000000000455</v>
       </c>
       <c r="AA78">
@@ -14529,11 +18053,11 @@
         <v>88951442</v>
       </c>
       <c r="H79">
-        <f>((AA79-AB78)/AB78*100)</f>
+        <f t="shared" si="3"/>
         <v>2.1967235310046065</v>
       </c>
       <c r="I79">
-        <f>AA79-AB79</f>
+        <f t="shared" si="2"/>
         <v>2.8500000000000227</v>
       </c>
       <c r="AA79">
@@ -14566,11 +18090,11 @@
         <v>104817449</v>
       </c>
       <c r="H80">
-        <f>((AA80-AB79)/AB79*100)</f>
+        <f t="shared" si="3"/>
         <v>1.0164504480406649</v>
       </c>
       <c r="I80">
-        <f>AA80-AB80</f>
+        <f t="shared" si="2"/>
         <v>-1.4099999999999682</v>
       </c>
       <c r="AA80">
@@ -14603,11 +18127,11 @@
         <v>90767807</v>
       </c>
       <c r="H81">
-        <f>((AA81-AB80)/AB80*100)</f>
+        <f t="shared" si="3"/>
         <v>0.36899153296214698</v>
       </c>
       <c r="I81">
-        <f>AA81-AB81</f>
+        <f t="shared" si="2"/>
         <v>1.67999999999995</v>
       </c>
       <c r="AA81">
@@ -14640,11 +18164,11 @@
         <v>119265702</v>
       </c>
       <c r="H82">
-        <f>((AA82-AB81)/AB81*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.1683334983661906</v>
       </c>
       <c r="I82">
-        <f>AA82-AB82</f>
+        <f t="shared" si="2"/>
         <v>-1.8600000000000136</v>
       </c>
       <c r="AA82">
@@ -14677,11 +18201,11 @@
         <v>56779836</v>
       </c>
       <c r="H83">
-        <f>((AA83-AB82)/AB82*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.23002103049421288</v>
       </c>
       <c r="I83">
-        <f>AA83-AB83</f>
+        <f t="shared" si="2"/>
         <v>-1.9300000000000068</v>
       </c>
       <c r="AA83">
@@ -14714,11 +18238,11 @@
         <v>74267162</v>
       </c>
       <c r="H84">
-        <f>((AA84-AB83)/AB83*100)</f>
+        <f t="shared" si="3"/>
         <v>0.32727867779414171</v>
       </c>
       <c r="I84">
-        <f>AA84-AB84</f>
+        <f t="shared" si="2"/>
         <v>-1.5299999999999727</v>
       </c>
       <c r="AA84">
@@ -14751,11 +18275,11 @@
         <v>92567574</v>
       </c>
       <c r="H85">
-        <f>((AA85-AB84)/AB84*100)</f>
+        <f t="shared" si="3"/>
         <v>0.70111659309271135</v>
       </c>
       <c r="I85">
-        <f>AA85-AB85</f>
+        <f t="shared" si="2"/>
         <v>-1.9399999999999977</v>
       </c>
       <c r="AA85">
@@ -14788,11 +18312,11 @@
         <v>75794363</v>
       </c>
       <c r="H86">
-        <f>((AA86-AB85)/AB85*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.34275097700044627</v>
       </c>
       <c r="I86">
-        <f>AA86-AB86</f>
+        <f t="shared" si="2"/>
         <v>-0.25</v>
       </c>
       <c r="AA86">
@@ -14825,11 +18349,11 @@
         <v>150524674</v>
       </c>
       <c r="H87">
-        <f>((AA87-AB86)/AB86*100)</f>
+        <f t="shared" si="3"/>
         <v>1.885277492291882</v>
       </c>
       <c r="I87">
-        <f>AA87-AB87</f>
+        <f t="shared" si="2"/>
         <v>-2.1099999999999568</v>
       </c>
       <c r="AA87">
@@ -14862,11 +18386,11 @@
         <v>73641217</v>
       </c>
       <c r="H88">
-        <f>((AA88-AB87)/AB87*100)</f>
+        <f t="shared" si="3"/>
         <v>0.27556835974198418</v>
       </c>
       <c r="I88">
-        <f>AA88-AB88</f>
+        <f t="shared" si="2"/>
         <v>-2.9799999999999613</v>
       </c>
       <c r="AA88">
@@ -14899,11 +18423,11 @@
         <v>77479228</v>
       </c>
       <c r="H89">
-        <f>((AA89-AB88)/AB88*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.8972772277227653</v>
       </c>
       <c r="I89">
-        <f>AA89-AB89</f>
+        <f t="shared" si="2"/>
         <v>-0.49000000000000909</v>
       </c>
       <c r="AA89">
@@ -14936,11 +18460,11 @@
         <v>95000766</v>
       </c>
       <c r="H90">
-        <f>((AA90-AB89)/AB89*100)</f>
+        <f t="shared" si="3"/>
         <v>0.19639016178808424</v>
       </c>
       <c r="I90">
-        <f>AA90-AB90</f>
+        <f t="shared" si="2"/>
         <v>2.4200000000000159</v>
       </c>
       <c r="AA90">
@@ -14973,11 +18497,11 @@
         <v>209243560</v>
       </c>
       <c r="H91">
-        <f>((AA91-AB90)/AB90*100)</f>
+        <f t="shared" si="3"/>
         <v>-2.36363636363637</v>
       </c>
       <c r="I91">
-        <f>AA91-AB91</f>
+        <f t="shared" si="2"/>
         <v>10.849999999999966</v>
       </c>
       <c r="AA91">
@@ -15010,11 +18534,11 @@
         <v>194678879</v>
       </c>
       <c r="H92">
-        <f>((AA92-AB91)/AB91*100)</f>
+        <f t="shared" si="3"/>
         <v>2.5381723828215947</v>
       </c>
       <c r="I92">
-        <f>AA92-AB92</f>
+        <f t="shared" si="2"/>
         <v>4.0300000000000296</v>
       </c>
       <c r="AA92">
@@ -15047,11 +18571,11 @@
         <v>135782724</v>
       </c>
       <c r="H93">
-        <f>((AA93-AB92)/AB92*100)</f>
+        <f t="shared" si="3"/>
         <v>-2.034778606883402</v>
       </c>
       <c r="I93">
-        <f>AA93-AB93</f>
+        <f t="shared" si="2"/>
         <v>-9.0300000000000296</v>
       </c>
       <c r="AA93">
@@ -15084,11 +18608,11 @@
         <v>137627502</v>
       </c>
       <c r="H94">
-        <f>((AA94-AB93)/AB93*100)</f>
+        <f t="shared" si="3"/>
         <v>2.7454811919882776</v>
       </c>
       <c r="I94">
-        <f>AA94-AB94</f>
+        <f t="shared" si="2"/>
         <v>2.5200000000000387</v>
       </c>
       <c r="AA94">
@@ -15121,11 +18645,11 @@
         <v>83398944</v>
       </c>
       <c r="H95">
-        <f>((AA95-AB94)/AB94*100)</f>
+        <f t="shared" si="3"/>
         <v>0.35467791411043381</v>
       </c>
       <c r="I95">
-        <f>AA95-AB95</f>
+        <f t="shared" si="2"/>
         <v>2.4099999999999682</v>
       </c>
       <c r="AA95">
@@ -15158,11 +18682,11 @@
         <v>80828658</v>
       </c>
       <c r="H96">
-        <f>((AA96-AB95)/AB95*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.53102740165565987</v>
       </c>
       <c r="I96">
-        <f>AA96-AB96</f>
+        <f t="shared" si="2"/>
         <v>-1.7749999999999773</v>
       </c>
       <c r="AA96">
@@ -15195,11 +18719,11 @@
         <v>135549624</v>
       </c>
       <c r="H97">
-        <f>((AA97-AB96)/AB96*100)</f>
+        <f t="shared" si="3"/>
         <v>0.76656616845212766</v>
       </c>
       <c r="I97">
-        <f>AA97-AB97</f>
+        <f t="shared" si="2"/>
         <v>5.5300000000000296</v>
       </c>
       <c r="AA97">
@@ -15232,11 +18756,11 @@
         <v>74649389</v>
       </c>
       <c r="H98">
-        <f>((AA98-AB97)/AB97*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.21060134784861889</v>
       </c>
       <c r="I98">
-        <f>AA98-AB98</f>
+        <f t="shared" si="2"/>
         <v>-2.6299999999999955</v>
       </c>
       <c r="AA98">
@@ -15269,11 +18793,11 @@
         <v>68471246</v>
       </c>
       <c r="H99">
-        <f>((AA99-AB98)/AB98*100)</f>
+        <f t="shared" si="3"/>
         <v>0.92395853454381704</v>
       </c>
       <c r="I99">
-        <f>AA99-AB99</f>
+        <f t="shared" si="2"/>
         <v>1.4399999999999977</v>
       </c>
       <c r="AA99">
@@ -15306,11 +18830,11 @@
         <v>132813492</v>
       </c>
       <c r="H100">
-        <f>((AA100-AB99)/AB99*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.7082198365646647</v>
       </c>
       <c r="I100">
-        <f>AA100-AB100</f>
+        <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
       <c r="AA100">
@@ -15343,11 +18867,11 @@
         <v>89467968</v>
       </c>
       <c r="H101">
-        <f>((AA101-AB100)/AB100*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.20388700713602809</v>
       </c>
       <c r="I101">
-        <f>AA101-AB101</f>
+        <f t="shared" si="2"/>
         <v>-3.8799999999999955</v>
       </c>
       <c r="AA101">
@@ -15380,11 +18904,11 @@
         <v>127961017</v>
       </c>
       <c r="H102">
-        <f>((AA102-AB101)/AB101*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.38718073857166019</v>
       </c>
       <c r="I102">
-        <f>AA102-AB102</f>
+        <f t="shared" si="2"/>
         <v>6.1100000000000136</v>
       </c>
       <c r="AA102">
@@ -15417,11 +18941,11 @@
         <v>79773260</v>
       </c>
       <c r="H103">
-        <f>((AA103-AB102)/AB102*100)</f>
+        <f t="shared" si="3"/>
         <v>0.45325779036827651</v>
       </c>
       <c r="I103">
-        <f>AA103-AB103</f>
+        <f t="shared" si="2"/>
         <v>-3.0499999999999545</v>
       </c>
       <c r="AA103">
@@ -15454,11 +18978,11 @@
         <v>113394772</v>
       </c>
       <c r="H104">
-        <f>((AA104-AB103)/AB103*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.15437167443998243</v>
       </c>
       <c r="I104">
-        <f>AA104-AB104</f>
+        <f t="shared" si="2"/>
         <v>-4.3700000000000045</v>
       </c>
       <c r="AA104">
@@ -15491,11 +19015,11 @@
         <v>72396542</v>
       </c>
       <c r="H105">
-        <f>((AA105-AB104)/AB104*100)</f>
+        <f t="shared" si="3"/>
         <v>0.39239849526526771</v>
       </c>
       <c r="I105">
-        <f>AA105-AB105</f>
+        <f t="shared" si="2"/>
         <v>-0.94999999999998863</v>
       </c>
       <c r="AA105">
@@ -15528,11 +19052,11 @@
         <v>69344217</v>
       </c>
       <c r="H106">
-        <f>((AA106-AB105)/AB105*100)</f>
+        <f t="shared" si="3"/>
         <v>1.1979904676027398</v>
       </c>
       <c r="I106">
-        <f>AA106-AB106</f>
+        <f t="shared" si="2"/>
         <v>2.0099999999999909</v>
       </c>
       <c r="AA106">
@@ -15565,11 +19089,11 @@
         <v>61713828</v>
       </c>
       <c r="H107">
-        <f>((AA107-AB106)/AB106*100)</f>
+        <f t="shared" si="3"/>
         <v>1.3259456170130948</v>
       </c>
       <c r="I107">
-        <f>AA107-AB107</f>
+        <f t="shared" si="2"/>
         <v>-0.68000000000000682</v>
       </c>
       <c r="AA107">
@@ -15602,11 +19126,11 @@
         <v>82909963</v>
       </c>
       <c r="H108">
-        <f>((AA108-AB107)/AB107*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.52673079955843427</v>
       </c>
       <c r="I108">
-        <f>AA108-AB108</f>
+        <f t="shared" si="2"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="AA108">
@@ -15639,11 +19163,11 @@
         <v>54638596</v>
       </c>
       <c r="H109">
-        <f>((AA109-AB108)/AB108*100)</f>
+        <f t="shared" si="3"/>
         <v>0.26451654025114446</v>
       </c>
       <c r="I109">
-        <f>AA109-AB109</f>
+        <f t="shared" si="2"/>
         <v>-1.5699999999999932</v>
       </c>
       <c r="AA109">
@@ -15676,11 +19200,11 @@
         <v>83354158</v>
       </c>
       <c r="H110">
-        <f>((AA110-AB109)/AB109*100)</f>
+        <f t="shared" si="3"/>
         <v>0.20874185590485425</v>
       </c>
       <c r="I110">
-        <f>AA110-AB110</f>
+        <f t="shared" si="2"/>
         <v>2.4599999999999795</v>
       </c>
       <c r="AA110">
@@ -15713,11 +19237,11 @@
         <v>57550365</v>
       </c>
       <c r="H111">
-        <f>((AA111-AB110)/AB110*100)</f>
+        <f t="shared" si="3"/>
         <v>-2.2266047458487558E-2</v>
       </c>
       <c r="I111">
-        <f>AA111-AB111</f>
+        <f t="shared" si="2"/>
         <v>-3.2799999999999727</v>
       </c>
       <c r="AA111">
@@ -15750,11 +19274,11 @@
         <v>102997484</v>
       </c>
       <c r="H112">
-        <f>((AA112-AB111)/AB111*100)</f>
+        <f t="shared" si="3"/>
         <v>0.79977329260997532</v>
       </c>
       <c r="I112">
-        <f>AA112-AB112</f>
+        <f t="shared" si="2"/>
         <v>5.2900000000000205</v>
       </c>
       <c r="AA112">
@@ -15787,11 +19311,11 @@
         <v>93656951</v>
       </c>
       <c r="H113">
-        <f>((AA113-AB112)/AB112*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.48913733960105571</v>
       </c>
       <c r="I113">
-        <f>AA113-AB113</f>
+        <f t="shared" si="2"/>
         <v>-5.6200000000000045</v>
       </c>
       <c r="AA113">
@@ -15824,11 +19348,11 @@
         <v>87196524</v>
       </c>
       <c r="H114">
-        <f>((AA114-AB113)/AB113*100)</f>
+        <f t="shared" si="3"/>
         <v>1.0943183243446661</v>
       </c>
       <c r="I114">
-        <f>AA114-AB114</f>
+        <f t="shared" si="2"/>
         <v>0.56000000000000227</v>
       </c>
       <c r="AA114">
@@ -15861,11 +19385,11 @@
         <v>54622520</v>
       </c>
       <c r="H115">
-        <f>((AA115-AB114)/AB114*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.64004971259903753</v>
       </c>
       <c r="I115">
-        <f>AA115-AB115</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="AA115">
@@ -15898,11 +19422,11 @@
         <v>62774911</v>
       </c>
       <c r="H116">
-        <f>((AA116-AB115)/AB115*100)</f>
+        <f t="shared" si="3"/>
         <v>0.33978615293493403</v>
       </c>
       <c r="I116">
-        <f>AA116-AB116</f>
+        <f t="shared" si="2"/>
         <v>0.15999999999996817</v>
       </c>
       <c r="AA116">
@@ -15935,11 +19459,11 @@
         <v>56308849</v>
       </c>
       <c r="H117">
-        <f>((AA117-AB116)/AB116*100)</f>
+        <f t="shared" si="3"/>
         <v>-9.0140494840240101E-2</v>
       </c>
       <c r="I117">
-        <f>AA117-AB117</f>
+        <f t="shared" si="2"/>
         <v>-2.8899999999999864</v>
       </c>
       <c r="AA117">
@@ -15972,11 +19496,11 @@
         <v>57498967</v>
       </c>
       <c r="H118">
-        <f>((AA118-AB117)/AB117*100)</f>
+        <f t="shared" si="3"/>
         <v>0.65675875678342233</v>
       </c>
       <c r="I118">
-        <f>AA118-AB118</f>
+        <f t="shared" si="2"/>
         <v>1.4399999999999977</v>
       </c>
       <c r="AA118">
@@ -16009,11 +19533,11 @@
         <v>57792915</v>
       </c>
       <c r="H119">
-        <f>((AA119-AB118)/AB118*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.11999630780590946</v>
       </c>
       <c r="I119">
-        <f>AA119-AB119</f>
+        <f t="shared" si="2"/>
         <v>-2.2400000000000091</v>
       </c>
       <c r="AA119">
@@ -16046,11 +19570,11 @@
         <v>75737989</v>
       </c>
       <c r="H120">
-        <f>((AA120-AB119)/AB119*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.11931713883619481</v>
       </c>
       <c r="I120">
-        <f>AA120-AB120</f>
+        <f t="shared" si="2"/>
         <v>3.5100000000000477</v>
       </c>
       <c r="AA120">
@@ -16083,11 +19607,11 @@
         <v>73766597</v>
       </c>
       <c r="H121">
-        <f>((AA121-AB120)/AB120*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.62236809512013591</v>
       </c>
       <c r="I121">
-        <f>AA121-AB121</f>
+        <f t="shared" si="2"/>
         <v>6.9999999999993179E-2</v>
       </c>
       <c r="AA121">
@@ -16120,11 +19644,11 @@
         <v>48292970</v>
       </c>
       <c r="H122">
-        <f>((AA122-AB121)/AB121*100)</f>
+        <f t="shared" si="3"/>
         <v>0.2337322363500374</v>
       </c>
       <c r="I122">
-        <f>AA122-AB122</f>
+        <f t="shared" si="2"/>
         <v>-1.5900000000000318</v>
       </c>
       <c r="AA122">
@@ -16157,11 +19681,11 @@
         <v>57494979</v>
       </c>
       <c r="H123">
-        <f>((AA123-AB122)/AB122*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.24441556834354938</v>
       </c>
       <c r="I123">
-        <f>AA123-AB123</f>
+        <f t="shared" si="2"/>
         <v>1.2599999999999909</v>
       </c>
       <c r="AA123">
@@ -16194,11 +19718,11 @@
         <v>48454159</v>
       </c>
       <c r="H124">
-        <f>((AA124-AB123)/AB123*100)</f>
+        <f t="shared" si="3"/>
         <v>0.29579350499734985</v>
       </c>
       <c r="I124">
-        <f>AA124-AB124</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AA124">
@@ -16231,11 +19755,11 @@
         <v>61861714</v>
       </c>
       <c r="H125">
-        <f>((AA125-AB124)/AB124*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.9904035433070949</v>
       </c>
       <c r="I125">
-        <f>AA125-AB125</f>
+        <f t="shared" si="2"/>
         <v>-2.0600000000000023</v>
       </c>
       <c r="AA125">
@@ -16268,11 +19792,11 @@
         <v>85210755</v>
       </c>
       <c r="H126">
-        <f>((AA126-AB125)/AB125*100)</f>
+        <f t="shared" si="3"/>
         <v>0.59883936288430606</v>
       </c>
       <c r="I126">
-        <f>AA126-AB126</f>
+        <f t="shared" si="2"/>
         <v>-0.62000000000000455</v>
       </c>
       <c r="AA126">
@@ -16305,11 +19829,11 @@
         <v>53077948</v>
       </c>
       <c r="H127">
-        <f>((AA127-AB126)/AB126*100)</f>
+        <f t="shared" si="3"/>
         <v>0.55126791620728022</v>
       </c>
       <c r="I127">
-        <f>AA127-AB127</f>
+        <f t="shared" si="2"/>
         <v>-0.47000000000002728</v>
       </c>
       <c r="AA127">
@@ -16342,11 +19866,11 @@
         <v>41917893</v>
       </c>
       <c r="H128">
-        <f>((AA128-AB127)/AB127*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.28285531798412566</v>
       </c>
       <c r="I128">
-        <f>AA128-AB128</f>
+        <f t="shared" si="2"/>
         <v>-2.1999999999999886</v>
       </c>
       <c r="AA128">
@@ -16379,11 +19903,11 @@
         <v>42866354</v>
       </c>
       <c r="H129">
-        <f>((AA129-AB128)/AB128*100)</f>
+        <f t="shared" si="3"/>
         <v>0.42719505544447217</v>
       </c>
       <c r="I129">
-        <f>AA129-AB129</f>
+        <f t="shared" si="2"/>
         <v>-0.63999999999998636</v>
       </c>
       <c r="AA129">
@@ -16416,11 +19940,11 @@
         <v>43679447</v>
       </c>
       <c r="H130">
-        <f>((AA130-AB129)/AB129*100)</f>
+        <f t="shared" si="3"/>
         <v>-0.1897262955045097</v>
       </c>
       <c r="I130">
-        <f>AA130-AB130</f>
+        <f t="shared" ref="I130:I193" si="4">AA130-AB130</f>
         <v>-2.8500999999999976</v>
       </c>
       <c r="AA130">
@@ -16453,11 +19977,11 @@
         <v>57308270</v>
       </c>
       <c r="H131">
-        <f>((AA131-AB130)/AB130*100)</f>
+        <f t="shared" ref="H131:H194" si="5">((AA131-AB130)/AB130*100)</f>
         <v>-0.31406095773637166</v>
       </c>
       <c r="I131">
-        <f>AA131-AB131</f>
+        <f t="shared" si="4"/>
         <v>-1.2900000000000205</v>
       </c>
       <c r="AA131">
@@ -16490,11 +20014,11 @@
         <v>44282089</v>
       </c>
       <c r="H132">
-        <f>((AA132-AB131)/AB131*100)</f>
+        <f t="shared" si="5"/>
         <v>0.14645664584392179</v>
       </c>
       <c r="I132">
-        <f>AA132-AB132</f>
+        <f t="shared" si="4"/>
         <v>-0.50999999999999091</v>
       </c>
       <c r="AA132">
@@ -16527,11 +20051,11 @@
         <v>69601087</v>
       </c>
       <c r="H133">
-        <f>((AA133-AB132)/AB132*100)</f>
+        <f t="shared" si="5"/>
         <v>0.38144053401675648</v>
       </c>
       <c r="I133">
-        <f>AA133-AB133</f>
+        <f t="shared" si="4"/>
         <v>4.0500000000000114</v>
       </c>
       <c r="AA133">
@@ -16564,11 +20088,11 @@
         <v>53826128</v>
       </c>
       <c r="H134">
-        <f>((AA134-AB133)/AB133*100)</f>
+        <f t="shared" si="5"/>
         <v>0.79326923076922662</v>
       </c>
       <c r="I134">
-        <f>AA134-AB134</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="AA134">
@@ -16601,11 +20125,11 @@
         <v>41816146</v>
       </c>
       <c r="H135">
-        <f>((AA135-AB134)/AB134*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.24596965386438599</v>
       </c>
       <c r="I135">
-        <f>AA135-AB135</f>
+        <f t="shared" si="4"/>
         <v>-0.21999999999997044</v>
       </c>
       <c r="AA135">
@@ -16638,11 +20162,11 @@
         <v>47260390</v>
       </c>
       <c r="H136">
-        <f>((AA136-AB135)/AB135*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.12469198111805929</v>
       </c>
       <c r="I136">
-        <f>AA136-AB136</f>
+        <f t="shared" si="4"/>
         <v>-0.42999999999994998</v>
       </c>
       <c r="AA136">
@@ -16675,11 +20199,11 @@
         <v>35480974</v>
       </c>
       <c r="H137">
-        <f>((AA137-AB136)/AB136*100)</f>
+        <f t="shared" si="5"/>
         <v>0.32656454102838822</v>
       </c>
       <c r="I137">
-        <f>AA137-AB137</f>
+        <f t="shared" si="4"/>
         <v>2.9999999999972715E-2</v>
       </c>
       <c r="AA137">
@@ -16712,11 +20236,11 @@
         <v>38733908</v>
       </c>
       <c r="H138">
-        <f>((AA138-AB137)/AB137*100)</f>
+        <f t="shared" si="5"/>
         <v>0.12725281879788997</v>
       </c>
       <c r="I138">
-        <f>AA138-AB138</f>
+        <f t="shared" si="4"/>
         <v>-0.30000000000001137</v>
       </c>
       <c r="AA138">
@@ -16749,11 +20273,11 @@
         <v>68054244</v>
       </c>
       <c r="H139">
-        <f>((AA139-AB138)/AB138*100)</f>
+        <f t="shared" si="5"/>
         <v>0.12107252539570784</v>
       </c>
       <c r="I139">
-        <f>AA139-AB139</f>
+        <f t="shared" si="4"/>
         <v>1.8199999999999932</v>
       </c>
       <c r="AA139">
@@ -16786,11 +20310,11 @@
         <v>42207826</v>
       </c>
       <c r="H140">
-        <f>((AA140-AB139)/AB139*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.55451768822465508</v>
       </c>
       <c r="I140">
-        <f>AA140-AB140</f>
+        <f t="shared" si="4"/>
         <v>-2.9199999999999591</v>
       </c>
       <c r="AA140">
@@ -16823,11 +20347,11 @@
         <v>55106628</v>
       </c>
       <c r="H141">
-        <f>((AA141-AB140)/AB140*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.10642071656614546</v>
       </c>
       <c r="I141">
-        <f>AA141-AB141</f>
+        <f t="shared" si="4"/>
         <v>-1.5600000000000023</v>
       </c>
       <c r="AA141">
@@ -16860,11 +20384,11 @@
         <v>48588662</v>
       </c>
       <c r="H142">
-        <f>((AA142-AB141)/AB141*100)</f>
+        <f t="shared" si="5"/>
         <v>0.77765995051254455</v>
       </c>
       <c r="I142">
-        <f>AA142-AB142</f>
+        <f t="shared" si="4"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="AA142">
@@ -16897,11 +20421,11 @@
         <v>38463381</v>
       </c>
       <c r="H143">
-        <f>((AA143-AB142)/AB142*100)</f>
+        <f t="shared" si="5"/>
         <v>0.17788405458997922</v>
       </c>
       <c r="I143">
-        <f>AA143-AB143</f>
+        <f t="shared" si="4"/>
         <v>-0.59000000000003183</v>
       </c>
       <c r="AA143">
@@ -16934,11 +20458,11 @@
         <v>50790237</v>
       </c>
       <c r="H144">
-        <f>((AA144-AB143)/AB143*100)</f>
+        <f t="shared" si="5"/>
         <v>0.18598163431360756</v>
       </c>
       <c r="I144">
-        <f>AA144-AB144</f>
+        <f t="shared" si="4"/>
         <v>-2.8100000000000023</v>
       </c>
       <c r="AA144">
@@ -16971,11 +20495,11 @@
         <v>58034142</v>
       </c>
       <c r="H145">
-        <f>((AA145-AB144)/AB144*100)</f>
+        <f t="shared" si="5"/>
         <v>0.27044911816324707</v>
       </c>
       <c r="I145">
-        <f>AA145-AB145</f>
+        <f t="shared" si="4"/>
         <v>0.18000000000000682</v>
       </c>
       <c r="AA145">
@@ -17008,11 +20532,11 @@
         <v>48588940</v>
       </c>
       <c r="H146">
-        <f>((AA146-AB145)/AB145*100)</f>
+        <f t="shared" si="5"/>
         <v>0.31866333649126222</v>
       </c>
       <c r="I146">
-        <f>AA146-AB146</f>
+        <f t="shared" si="4"/>
         <v>-1.1399999999999864</v>
       </c>
       <c r="AA146">
@@ -17045,11 +20569,11 @@
         <v>66099183</v>
       </c>
       <c r="H147">
-        <f>((AA147-AB146)/AB146*100)</f>
+        <f t="shared" si="5"/>
         <v>-6.5605567916013852E-2</v>
       </c>
       <c r="I147">
-        <f>AA147-AB147</f>
+        <f t="shared" si="4"/>
         <v>1.0400000000000205</v>
       </c>
       <c r="AA147">
@@ -17082,11 +20606,11 @@
         <v>54999325</v>
       </c>
       <c r="H148">
-        <f>((AA148-AB147)/AB147*100)</f>
+        <f t="shared" si="5"/>
         <v>0.25765079728607176</v>
       </c>
       <c r="I148">
-        <f>AA148-AB148</f>
+        <f t="shared" si="4"/>
         <v>-2.3900000000000432</v>
       </c>
       <c r="AA148">
@@ -17119,11 +20643,11 @@
         <v>69540035</v>
       </c>
       <c r="H149">
-        <f>((AA149-AB148)/AB148*100)</f>
+        <f t="shared" si="5"/>
         <v>0.58706749858196061</v>
       </c>
       <c r="I149">
-        <f>AA149-AB149</f>
+        <f t="shared" si="4"/>
         <v>-3.0299999999999727</v>
       </c>
       <c r="AA149">
@@ -17156,11 +20680,11 @@
         <v>148011129</v>
       </c>
       <c r="H150">
-        <f>((AA150-AB149)/AB149*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.51160190103438186</v>
       </c>
       <c r="I150">
-        <f>AA150-AB150</f>
+        <f t="shared" si="4"/>
         <v>10.480000000000018</v>
       </c>
       <c r="AA150">
@@ -17193,11 +20717,11 @@
         <v>139156281</v>
       </c>
       <c r="H151">
-        <f>((AA151-AB150)/AB150*100)</f>
+        <f t="shared" si="5"/>
         <v>0.21425055734097953</v>
       </c>
       <c r="I151">
-        <f>AA151-AB151</f>
+        <f t="shared" si="4"/>
         <v>3.5600000000000023</v>
       </c>
       <c r="AA151">
@@ -17230,11 +20754,11 @@
         <v>114465322</v>
       </c>
       <c r="H152">
-        <f>((AA152-AB151)/AB151*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.7105992935750398</v>
       </c>
       <c r="I152">
-        <f>AA152-AB152</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="AA152">
@@ -17267,11 +20791,11 @@
         <v>91462290</v>
       </c>
       <c r="H153">
-        <f>((AA153-AB152)/AB152*100)</f>
+        <f t="shared" si="5"/>
         <v>1.3024819183097842</v>
       </c>
       <c r="I153">
-        <f>AA153-AB153</f>
+        <f t="shared" si="4"/>
         <v>-2.2400000000000091</v>
       </c>
       <c r="AA153">
@@ -17304,11 +20828,11 @@
         <v>90569548</v>
       </c>
       <c r="H154">
-        <f>((AA154-AB153)/AB153*100)</f>
+        <f t="shared" si="5"/>
         <v>0.59742782306718045</v>
       </c>
       <c r="I154">
-        <f>AA154-AB154</f>
+        <f t="shared" si="4"/>
         <v>7.9300000000000068</v>
       </c>
       <c r="AA154">
@@ -17341,11 +20865,11 @@
         <v>84680194</v>
       </c>
       <c r="H155">
-        <f>((AA155-AB154)/AB154*100)</f>
+        <f t="shared" si="5"/>
         <v>0.5780346820809269</v>
       </c>
       <c r="I155">
-        <f>AA155-AB155</f>
+        <f t="shared" si="4"/>
         <v>1.7599999999999909</v>
       </c>
       <c r="AA155">
@@ -17378,11 +20902,11 @@
         <v>65605686</v>
       </c>
       <c r="H156">
-        <f>((AA156-AB155)/AB155*100)</f>
+        <f t="shared" si="5"/>
         <v>1.026761659582113</v>
       </c>
       <c r="I156">
-        <f>AA156-AB156</f>
+        <f t="shared" si="4"/>
         <v>-0.96999999999997044</v>
       </c>
       <c r="AA156">
@@ -17415,11 +20939,11 @@
         <v>52920862</v>
       </c>
       <c r="H157">
-        <f>((AA157-AB156)/AB156*100)</f>
+        <f t="shared" si="5"/>
         <v>0.78591266323938591</v>
       </c>
       <c r="I157">
-        <f>AA157-AB157</f>
+        <f t="shared" si="4"/>
         <v>0.94999999999998863</v>
       </c>
       <c r="AA157">
@@ -17452,11 +20976,11 @@
         <v>82211256</v>
       </c>
       <c r="H158">
-        <f>((AA158-AB157)/AB157*100)</f>
+        <f t="shared" si="5"/>
         <v>0.39392068671545838</v>
       </c>
       <c r="I158">
-        <f>AA158-AB158</f>
+        <f t="shared" si="4"/>
         <v>2.6899999999999977</v>
       </c>
       <c r="AA158">
@@ -17489,11 +21013,11 @@
         <v>91523339</v>
       </c>
       <c r="H159">
-        <f>((AA159-AB158)/AB158*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.5524467268756246</v>
       </c>
       <c r="I159">
-        <f>AA159-AB159</f>
+        <f t="shared" si="4"/>
         <v>-2.2799999999999727</v>
       </c>
       <c r="AA159">
@@ -17526,11 +21050,11 @@
         <v>105877942</v>
       </c>
       <c r="H160">
-        <f>((AA160-AB159)/AB159*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.13994759409241617</v>
       </c>
       <c r="I160">
-        <f>AA160-AB160</f>
+        <f t="shared" si="4"/>
         <v>4.7200000000000273</v>
       </c>
       <c r="AA160">
@@ -17563,11 +21087,11 @@
         <v>99450829</v>
       </c>
       <c r="H161">
-        <f>((AA161-AB160)/AB160*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.4970512626644454</v>
       </c>
       <c r="I161">
-        <f>AA161-AB161</f>
+        <f t="shared" si="4"/>
         <v>-1.2700000000000387</v>
       </c>
       <c r="AA161">
@@ -17600,11 +21124,11 @@
         <v>63612107</v>
       </c>
       <c r="H162">
-        <f>((AA162-AB161)/AB161*100)</f>
+        <f t="shared" si="5"/>
         <v>0.48934152980394707</v>
       </c>
       <c r="I162">
-        <f>AA162-AB162</f>
+        <f t="shared" si="4"/>
         <v>-1.7300000000000182</v>
       </c>
       <c r="AA162">
@@ -17637,11 +21161,11 @@
         <v>93112240</v>
       </c>
       <c r="H163">
-        <f>((AA163-AB162)/AB162*100)</f>
+        <f t="shared" si="5"/>
         <v>0.1816530426884547</v>
       </c>
       <c r="I163">
-        <f>AA163-AB163</f>
+        <f t="shared" si="4"/>
         <v>8.2599999999999909</v>
       </c>
       <c r="AA163">
@@ -17674,11 +21198,11 @@
         <v>76681332</v>
       </c>
       <c r="H164">
-        <f>((AA164-AB163)/AB163*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.44011901810065684</v>
       </c>
       <c r="I164">
-        <f>AA164-AB164</f>
+        <f t="shared" si="4"/>
         <v>-2.2799999999999727</v>
       </c>
       <c r="AA164">
@@ -17711,11 +21235,11 @@
         <v>71069426</v>
       </c>
       <c r="H165">
-        <f>((AA165-AB164)/AB164*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.28438948995363705</v>
       </c>
       <c r="I165">
-        <f>AA165-AB165</f>
+        <f t="shared" si="4"/>
         <v>-6.1500000000000341</v>
       </c>
       <c r="AA165">
@@ -17748,11 +21272,11 @@
         <v>64584614</v>
       </c>
       <c r="H166">
-        <f>((AA166-AB165)/AB165*100)</f>
+        <f t="shared" si="5"/>
         <v>1.3658625619809597</v>
       </c>
       <c r="I166">
-        <f>AA166-AB166</f>
+        <f t="shared" si="4"/>
         <v>-0.96999999999997044</v>
       </c>
       <c r="AA166">
@@ -17785,11 +21309,11 @@
         <v>51531594</v>
       </c>
       <c r="H167">
-        <f>((AA167-AB166)/AB166*100)</f>
+        <f t="shared" si="5"/>
         <v>-6.5830814805939858E-2</v>
       </c>
       <c r="I167">
-        <f>AA167-AB167</f>
+        <f t="shared" si="4"/>
         <v>1.6000000000000227</v>
       </c>
       <c r="AA167">
@@ -17822,11 +21346,11 @@
         <v>104081136</v>
       </c>
       <c r="H168">
-        <f>((AA168-AB167)/AB167*100)</f>
+        <f t="shared" si="5"/>
         <v>0.2166260492824173</v>
       </c>
       <c r="I168">
-        <f>AA168-AB168</f>
+        <f t="shared" si="4"/>
         <v>-1.8000000000000114</v>
       </c>
       <c r="AA168">
@@ -17859,11 +21383,11 @@
         <v>88698745</v>
       </c>
       <c r="H169">
-        <f>((AA169-AB168)/AB168*100)</f>
+        <f t="shared" si="5"/>
         <v>0.83609543432172106</v>
       </c>
       <c r="I169">
-        <f>AA169-AB169</f>
+        <f t="shared" si="4"/>
         <v>0.64999999999997726</v>
       </c>
       <c r="AA169">
@@ -17896,11 +21420,11 @@
         <v>89431112</v>
       </c>
       <c r="H170">
-        <f>((AA170-AB169)/AB169*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.5843816757654969</v>
       </c>
       <c r="I170">
-        <f>AA170-AB170</f>
+        <f t="shared" si="4"/>
         <v>-2.1399999999999864</v>
       </c>
       <c r="AA170">
@@ -17933,11 +21457,11 @@
         <v>45713108</v>
       </c>
       <c r="H171">
-        <f>((AA171-AB170)/AB170*100)</f>
+        <f t="shared" si="5"/>
         <v>0.66498921639109376</v>
       </c>
       <c r="I171">
-        <f>AA171-AB171</f>
+        <f t="shared" si="4"/>
         <v>-3.6999999999999886</v>
       </c>
       <c r="AA171">
@@ -17970,11 +21494,11 @@
         <v>90128883</v>
       </c>
       <c r="H172">
-        <f>((AA172-AB171)/AB171*100)</f>
+        <f t="shared" si="5"/>
         <v>4.4148810925369118E-2</v>
       </c>
       <c r="I172">
-        <f>AA172-AB172</f>
+        <f t="shared" si="4"/>
         <v>4.9800000000000182</v>
       </c>
       <c r="AA172">
@@ -18007,11 +21531,11 @@
         <v>56999597</v>
       </c>
       <c r="H173">
-        <f>((AA173-AB172)/AB172*100)</f>
+        <f t="shared" si="5"/>
         <v>0.95243782282865008</v>
       </c>
       <c r="I173">
-        <f>AA173-AB173</f>
+        <f t="shared" si="4"/>
         <v>-2.6399999999999864</v>
       </c>
       <c r="AA173">
@@ -18044,11 +21568,11 @@
         <v>45242476</v>
       </c>
       <c r="H174">
-        <f>((AA174-AB173)/AB173*100)</f>
+        <f t="shared" si="5"/>
         <v>0.61333489846227018</v>
       </c>
       <c r="I174">
-        <f>AA174-AB174</f>
+        <f t="shared" si="4"/>
         <v>-0.92999999999994998</v>
       </c>
       <c r="AA174">
@@ -18081,11 +21605,11 @@
         <v>59528606</v>
       </c>
       <c r="H175">
-        <f>((AA175-AB174)/AB174*100)</f>
+        <f t="shared" si="5"/>
         <v>0.51777299435686475</v>
       </c>
       <c r="I175">
-        <f>AA175-AB175</f>
+        <f t="shared" si="4"/>
         <v>-1.2900000000000205</v>
       </c>
       <c r="AA175">
@@ -18118,11 +21642,11 @@
         <v>80388533</v>
       </c>
       <c r="H176">
-        <f>((AA176-AB175)/AB175*100)</f>
+        <f t="shared" si="5"/>
         <v>0.7899668444572443</v>
       </c>
       <c r="I176">
-        <f>AA176-AB176</f>
+        <f t="shared" si="4"/>
         <v>-2.8400000000000318</v>
       </c>
       <c r="AA176">
@@ -18155,11 +21679,11 @@
         <v>73255513</v>
       </c>
       <c r="H177">
-        <f>((AA177-AB176)/AB176*100)</f>
+        <f t="shared" si="5"/>
         <v>-4.2561643446935311E-2</v>
       </c>
       <c r="I177">
-        <f>AA177-AB177</f>
+        <f t="shared" si="4"/>
         <v>2.1499999999999773</v>
       </c>
       <c r="AA177">
@@ -18192,11 +21716,11 @@
         <v>57958749</v>
       </c>
       <c r="H178">
-        <f>((AA178-AB177)/AB177*100)</f>
+        <f t="shared" si="5"/>
         <v>0.17707708565390126</v>
       </c>
       <c r="I178">
-        <f>AA178-AB178</f>
+        <f t="shared" si="4"/>
         <v>2.8199999999999932</v>
       </c>
       <c r="AA178">
@@ -18229,11 +21753,11 @@
         <v>60357659</v>
       </c>
       <c r="H179">
-        <f>((AA179-AB178)/AB178*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.2128876498146257</v>
       </c>
       <c r="I179">
-        <f>AA179-AB179</f>
+        <f t="shared" si="4"/>
         <v>-3.7900000000000205</v>
       </c>
       <c r="AA179">
@@ -18266,11 +21790,11 @@
         <v>89501868</v>
       </c>
       <c r="H180">
-        <f>((AA180-AB179)/AB179*100)</f>
+        <f t="shared" si="5"/>
         <v>0.42014388489208043</v>
       </c>
       <c r="I180">
-        <f>AA180-AB180</f>
+        <f t="shared" si="4"/>
         <v>1.6699999999999591</v>
       </c>
       <c r="AA180">
@@ -18303,11 +21827,11 @@
         <v>68425614</v>
       </c>
       <c r="H181">
-        <f>((AA181-AB180)/AB180*100)</f>
+        <f t="shared" si="5"/>
         <v>0.3916035589852736</v>
       </c>
       <c r="I181">
-        <f>AA181-AB181</f>
+        <f t="shared" si="4"/>
         <v>6.6399999999999864</v>
       </c>
       <c r="AA181">
@@ -18340,11 +21864,11 @@
         <v>60051880</v>
       </c>
       <c r="H182">
-        <f>((AA182-AB181)/AB181*100)</f>
+        <f t="shared" si="5"/>
         <v>0.42396421157275771</v>
       </c>
       <c r="I182">
-        <f>AA182-AB182</f>
+        <f t="shared" si="4"/>
         <v>7.9999999999984084E-2</v>
       </c>
       <c r="AA182">
@@ -18377,11 +21901,11 @@
         <v>63574979</v>
       </c>
       <c r="H183">
-        <f>((AA183-AB182)/AB182*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.4561127613725718E-2</v>
       </c>
       <c r="I183">
-        <f>AA183-AB183</f>
+        <f t="shared" si="4"/>
         <v>0.59999999999996589</v>
       </c>
       <c r="AA183">
@@ -18414,11 +21938,11 @@
         <v>55399292</v>
       </c>
       <c r="H184">
-        <f>((AA184-AB183)/AB183*100)</f>
+        <f t="shared" si="5"/>
         <v>6.7108219297978389E-2</v>
       </c>
       <c r="I184">
-        <f>AA184-AB184</f>
+        <f t="shared" si="4"/>
         <v>-1.6500000000000341</v>
       </c>
       <c r="AA184">
@@ -18451,11 +21975,11 @@
         <v>49143931</v>
       </c>
       <c r="H185">
-        <f>((AA185-AB184)/AB184*100)</f>
+        <f t="shared" si="5"/>
         <v>0.38304169931226406</v>
       </c>
       <c r="I185">
-        <f>AA185-AB185</f>
+        <f t="shared" si="4"/>
         <v>0.15000000000003411</v>
       </c>
       <c r="AA185">
@@ -18488,11 +22012,11 @@
         <v>91473002</v>
       </c>
       <c r="H186">
-        <f>((AA186-AB185)/AB185*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.0555844756781703</v>
       </c>
       <c r="I186">
-        <f>AA186-AB186</f>
+        <f t="shared" si="4"/>
         <v>2.7400000000000091</v>
       </c>
       <c r="AA186">
@@ -18525,11 +22049,11 @@
         <v>65994108</v>
       </c>
       <c r="H187">
-        <f>((AA187-AB186)/AB186*100)</f>
+        <f t="shared" si="5"/>
         <v>0.109019122543388</v>
       </c>
       <c r="I187">
-        <f>AA187-AB187</f>
+        <f t="shared" si="4"/>
         <v>1.5399999999999636</v>
       </c>
       <c r="AA187">
@@ -18562,11 +22086,11 @@
         <v>127094307</v>
       </c>
       <c r="H188">
-        <f>((AA188-AB187)/AB187*100)</f>
+        <f t="shared" si="5"/>
         <v>-1.80947312400213</v>
       </c>
       <c r="I188">
-        <f>AA188-AB188</f>
+        <f t="shared" si="4"/>
         <v>5.4399999999999977</v>
       </c>
       <c r="AA188">
@@ -18599,11 +22123,11 @@
         <v>90597689</v>
       </c>
       <c r="H189">
-        <f>((AA189-AB188)/AB188*100)</f>
+        <f t="shared" si="5"/>
         <v>7.6532174126002564E-2</v>
       </c>
       <c r="I189">
-        <f>AA189-AB189</f>
+        <f t="shared" si="4"/>
         <v>-3.0699999999999932</v>
       </c>
       <c r="AA189">
@@ -18636,11 +22160,11 @@
         <v>120448685</v>
       </c>
       <c r="H190">
-        <f>((AA190-AB189)/AB189*100)</f>
+        <f t="shared" si="5"/>
         <v>-0.51518273834779238</v>
       </c>
       <c r="I190">
-        <f>AA190-AB190</f>
+        <f t="shared" si="4"/>
         <v>1.7399999999999523</v>
       </c>
       <c r="AA190">
@@ -18673,11 +22197,11 @@
         <v>86068299</v>
       </c>
       <c r="H191">
-        <f>((AA191-AB190)/AB190*100)</f>
+        <f t="shared" si="5"/>
         <v>1.1208427757701869</v>
       </c>
       <c r="I191">
-        <f>AA191-AB191</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA191">
@@ -18710,11 +22234,11 @@
         <v>93294192</v>
       </c>
       <c r="H192">
-        <f>((AA192-AB191)/AB191*100)</f>
+        <f t="shared" si="5"/>
         <v>1.0569351907934612</v>
       </c>
       <c r="I192">
-        <f>AA192-AB192</f>
+        <f t="shared" si="4"/>
         <v>-2.339999999999975</v>
       </c>
       <c r="AA192">
@@ -18747,11 +22271,11 @@
         <v>126959700</v>
       </c>
       <c r="H193">
-        <f>((AA193-AB192)/AB192*100)</f>
+        <f t="shared" si="5"/>
         <v>1.4373716632443654</v>
       </c>
       <c r="I193">
-        <f>AA193-AB193</f>
+        <f t="shared" si="4"/>
         <v>-2.6800000000000068</v>
       </c>
       <c r="AA193">
@@ -18784,11 +22308,11 @@
         <v>82039749</v>
       </c>
       <c r="H194">
-        <f>((AA194-AB193)/AB193*100)</f>
+        <f t="shared" si="5"/>
         <v>1.6591954357571139</v>
       </c>
       <c r="I194">
-        <f>AA194-AB194</f>
+        <f t="shared" ref="I194:I255" si="6">AA194-AB194</f>
         <v>-1</v>
       </c>
       <c r="AA194">
@@ -18821,11 +22345,11 @@
         <v>74972973</v>
       </c>
       <c r="H195">
-        <f>((AA195-AB194)/AB194*100)</f>
+        <f t="shared" ref="H195:H255" si="7">((AA195-AB194)/AB194*100)</f>
         <v>-8.8510735495660756E-2</v>
       </c>
       <c r="I195">
-        <f>AA195-AB195</f>
+        <f t="shared" si="6"/>
         <v>-0.23000000000001819</v>
       </c>
       <c r="AA195">
@@ -18858,11 +22382,11 @@
         <v>172304203</v>
       </c>
       <c r="H196">
-        <f>((AA196-AB195)/AB195*100)</f>
+        <f t="shared" si="7"/>
         <v>3.9439113548092304</v>
       </c>
       <c r="I196">
-        <f>AA196-AB196</f>
+        <f t="shared" si="6"/>
         <v>9.410000000000025</v>
       </c>
       <c r="AA196">
@@ -18895,11 +22419,11 @@
         <v>85552022</v>
       </c>
       <c r="H197">
-        <f>((AA197-AB196)/AB196*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.30178249097472731</v>
       </c>
       <c r="I197">
-        <f>AA197-AB197</f>
+        <f t="shared" si="6"/>
         <v>-0.55000000000001137</v>
       </c>
       <c r="AA197">
@@ -18932,11 +22456,11 @@
         <v>58649048</v>
       </c>
       <c r="H198">
-        <f>((AA198-AB197)/AB197*100)</f>
+        <f t="shared" si="7"/>
         <v>0.66659134561065325</v>
       </c>
       <c r="I198">
-        <f>AA198-AB198</f>
+        <f t="shared" si="6"/>
         <v>-0.27000000000003865</v>
       </c>
       <c r="AA198">
@@ -18969,11 +22493,11 @@
         <v>68118563</v>
       </c>
       <c r="H199">
-        <f>((AA199-AB198)/AB198*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.30560462051757414</v>
       </c>
       <c r="I199">
-        <f>AA199-AB199</f>
+        <f t="shared" si="6"/>
         <v>2.3700000000000045</v>
       </c>
       <c r="AA199">
@@ -19006,11 +22530,11 @@
         <v>62959429</v>
       </c>
       <c r="H200">
-        <f>((AA200-AB199)/AB199*100)</f>
+        <f t="shared" si="7"/>
         <v>0.58322244557062441</v>
       </c>
       <c r="I200">
-        <f>AA200-AB200</f>
+        <f t="shared" si="6"/>
         <v>-2.8300000000000409</v>
       </c>
       <c r="AA200">
@@ -19043,11 +22567,11 @@
         <v>74541138</v>
       </c>
       <c r="H201">
-        <f>((AA201-AB200)/AB200*100)</f>
+        <f t="shared" si="7"/>
         <v>0.80424462440658906</v>
       </c>
       <c r="I201">
-        <f>AA201-AB201</f>
+        <f t="shared" si="6"/>
         <v>-1.589999999999975</v>
       </c>
       <c r="AA201">
@@ -19080,11 +22604,11 @@
         <v>66111009</v>
       </c>
       <c r="H202">
-        <f>((AA202-AB201)/AB201*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.71710290426675294</v>
       </c>
       <c r="I202">
-        <f>AA202-AB202</f>
+        <f t="shared" si="6"/>
         <v>-0.64999999999997726</v>
       </c>
       <c r="AA202">
@@ -19117,11 +22641,11 @@
         <v>70591299</v>
       </c>
       <c r="H203">
-        <f>((AA203-AB202)/AB202*100)</f>
+        <f t="shared" si="7"/>
         <v>8.0417059508629707E-2</v>
       </c>
       <c r="I203">
-        <f>AA203-AB203</f>
+        <f t="shared" si="6"/>
         <v>4.6300000000000523</v>
       </c>
       <c r="AA203">
@@ -19154,11 +22678,11 @@
         <v>59940947</v>
       </c>
       <c r="H204">
-        <f>((AA204-AB203)/AB203*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.19086112046703435</v>
       </c>
       <c r="I204">
-        <f>AA204-AB204</f>
+        <f t="shared" si="6"/>
         <v>-2.17999999999995</v>
       </c>
       <c r="AA204">
@@ -19191,11 +22715,11 @@
         <v>70411890</v>
       </c>
       <c r="H205">
-        <f>((AA205-AB204)/AB204*100)</f>
+        <f t="shared" si="7"/>
         <v>-7.8260383475871401E-2</v>
       </c>
       <c r="I205">
-        <f>AA205-AB205</f>
+        <f t="shared" si="6"/>
         <v>2.1700000000000159</v>
       </c>
       <c r="AA205">
@@ -19228,11 +22752,11 @@
         <v>63230608</v>
       </c>
       <c r="H206">
-        <f>((AA206-AB205)/AB205*100)</f>
+        <f t="shared" si="7"/>
         <v>0.54878563588776308</v>
       </c>
       <c r="I206">
-        <f>AA206-AB206</f>
+        <f t="shared" si="6"/>
         <v>-0.18000000000000682</v>
       </c>
       <c r="AA206">
@@ -19265,11 +22789,11 @@
         <v>62415877</v>
       </c>
       <c r="H207">
-        <f>((AA207-AB206)/AB206*100)</f>
+        <f t="shared" si="7"/>
         <v>0.76931684664018363</v>
       </c>
       <c r="I207">
-        <f>AA207-AB207</f>
+        <f t="shared" si="6"/>
         <v>-3.0100000000000477</v>
       </c>
       <c r="AA207">
@@ -19302,11 +22826,11 @@
         <v>45330890</v>
       </c>
       <c r="H208">
-        <f>((AA208-AB207)/AB207*100)</f>
+        <f t="shared" si="7"/>
         <v>-2.4778371235072909E-2</v>
       </c>
       <c r="I208">
-        <f>AA208-AB208</f>
+        <f t="shared" si="6"/>
         <v>0.46999999999997044</v>
       </c>
       <c r="AA208">
@@ -19339,11 +22863,11 @@
         <v>28514072</v>
       </c>
       <c r="H209">
-        <f>((AA209-AB208)/AB208*100)</f>
+        <f t="shared" si="7"/>
         <v>0.32537362819168092</v>
       </c>
       <c r="I209">
-        <f>AA209-AB209</f>
+        <f t="shared" si="6"/>
         <v>0.16999999999995907</v>
       </c>
       <c r="AA209">
@@ -19376,11 +22900,11 @@
         <v>83872709</v>
       </c>
       <c r="H210">
-        <f>((AA210-AB209)/AB209*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.23097863447631969</v>
       </c>
       <c r="I210">
-        <f>AA210-AB210</f>
+        <f t="shared" si="6"/>
         <v>0.76999999999998181</v>
       </c>
       <c r="AA210">
@@ -19413,11 +22937,11 @@
         <v>74504969</v>
       </c>
       <c r="H211">
-        <f>((AA211-AB210)/AB210*100)</f>
+        <f t="shared" si="7"/>
         <v>0.96945257692094988</v>
       </c>
       <c r="I211">
-        <f>AA211-AB211</f>
+        <f t="shared" si="6"/>
         <v>-0.44999999999998863</v>
       </c>
       <c r="AA211">
@@ -19450,11 +22974,11 @@
         <v>45927000</v>
       </c>
       <c r="H212">
-        <f>((AA212-AB211)/AB211*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.32785093710725882</v>
       </c>
       <c r="I212">
-        <f>AA212-AB212</f>
+        <f t="shared" si="6"/>
         <v>-1.9700000000000273</v>
       </c>
       <c r="AA212">
@@ -19487,11 +23011,11 @@
         <v>62881998</v>
       </c>
       <c r="H213">
-        <f>((AA213-AB212)/AB212*100)</f>
+        <f t="shared" si="7"/>
         <v>-2.9989912483986376E-2</v>
       </c>
       <c r="I213">
-        <f>AA213-AB213</f>
+        <f t="shared" si="6"/>
         <v>-9.9999999999909051E-3</v>
       </c>
       <c r="AA213">
@@ -19524,11 +23048,11 @@
         <v>50749859</v>
       </c>
       <c r="H214">
-        <f>((AA214-AB213)/AB213*100)</f>
+        <f t="shared" si="7"/>
         <v>0.17180724862963143</v>
       </c>
       <c r="I214">
-        <f>AA214-AB214</f>
+        <f t="shared" si="6"/>
         <v>-2.5300000000000296</v>
       </c>
       <c r="AA214">
@@ -19561,11 +23085,11 @@
         <v>48944269</v>
       </c>
       <c r="H215">
-        <f>((AA215-AB214)/AB214*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.22441530350143052</v>
       </c>
       <c r="I215">
-        <f>AA215-AB215</f>
+        <f t="shared" si="6"/>
         <v>-6.9999999999993179E-2</v>
       </c>
       <c r="AA215">
@@ -19598,11 +23122,11 @@
         <v>42458859</v>
       </c>
       <c r="H216">
-        <f>((AA216-AB215)/AB215*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.37118318025412439</v>
       </c>
       <c r="I216">
-        <f>AA216-AB216</f>
+        <f t="shared" si="6"/>
         <v>-2.4499999999999886</v>
       </c>
       <c r="AA216">
@@ -19635,11 +23159,11 @@
         <v>74098312</v>
       </c>
       <c r="H217">
-        <f>((AA217-AB216)/AB216*100)</f>
+        <f t="shared" si="7"/>
         <v>0.19180376583731246</v>
       </c>
       <c r="I217">
-        <f>AA217-AB217</f>
+        <f t="shared" si="6"/>
         <v>4.0299999999999727</v>
       </c>
       <c r="AA217">
@@ -19672,11 +23196,11 @@
         <v>57735353</v>
       </c>
       <c r="H218">
-        <f>((AA218-AB217)/AB217*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.40343464631321196</v>
       </c>
       <c r="I218">
-        <f>AA218-AB218</f>
+        <f t="shared" si="6"/>
         <v>-1.3600000000000136</v>
       </c>
       <c r="AA218">
@@ -19709,11 +23233,11 @@
         <v>57698614</v>
       </c>
       <c r="H219">
-        <f>((AA219-AB218)/AB218*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.49900471736701141</v>
       </c>
       <c r="I219">
-        <f>AA219-AB219</f>
+        <f t="shared" si="6"/>
         <v>-1.4000000000000341</v>
       </c>
       <c r="AA219">
@@ -19746,11 +23270,11 @@
         <v>69216174</v>
       </c>
       <c r="H220">
-        <f>((AA220-AB219)/AB219*100)</f>
+        <f t="shared" si="7"/>
         <v>0.638820638820632</v>
       </c>
       <c r="I220">
-        <f>AA220-AB220</f>
+        <f t="shared" si="6"/>
         <v>3.9799999999999613</v>
       </c>
       <c r="AA220">
@@ -19783,11 +23307,11 @@
         <v>64071099</v>
       </c>
       <c r="H221">
-        <f>((AA221-AB220)/AB220*100)</f>
+        <f t="shared" si="7"/>
         <v>0.75138485164261282</v>
       </c>
       <c r="I221">
-        <f>AA221-AB221</f>
+        <f t="shared" si="6"/>
         <v>-2.1899999999999977</v>
       </c>
       <c r="AA221">
@@ -19820,11 +23344,11 @@
         <v>58420517</v>
       </c>
       <c r="H222">
-        <f>((AA222-AB221)/AB221*100)</f>
+        <f t="shared" si="7"/>
         <v>6.2231120971892699E-2</v>
       </c>
       <c r="I222">
-        <f>AA222-AB222</f>
+        <f t="shared" si="6"/>
         <v>-0.35000000000002274</v>
       </c>
       <c r="AA222">
@@ -19857,11 +23381,11 @@
         <v>64119472</v>
       </c>
       <c r="H223">
-        <f>((AA223-AB222)/AB222*100)</f>
+        <f t="shared" si="7"/>
         <v>0.47815868384795679</v>
       </c>
       <c r="I223">
-        <f>AA223-AB223</f>
+        <f t="shared" si="6"/>
         <v>-0.30000000000001137</v>
       </c>
       <c r="AA223">
@@ -19894,11 +23418,11 @@
         <v>136542328</v>
       </c>
       <c r="H224">
-        <f>((AA224-AB223)/AB223*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.34117773479475116</v>
       </c>
       <c r="I224">
-        <f>AA224-AB224</f>
+        <f t="shared" si="6"/>
         <v>1.7900000000000205</v>
       </c>
       <c r="AA224">
@@ -19931,11 +23455,11 @@
         <v>96386745</v>
       </c>
       <c r="H225">
-        <f>((AA225-AB224)/AB224*100)</f>
+        <f t="shared" si="7"/>
         <v>-1.1403651335391893</v>
       </c>
       <c r="I225">
-        <f>AA225-AB225</f>
+        <f t="shared" si="6"/>
         <v>-2.8899999999999864</v>
       </c>
       <c r="AA225">
@@ -19968,11 +23492,11 @@
         <v>48388462</v>
       </c>
       <c r="H226">
-        <f>((AA226-AB225)/AB225*100)</f>
+        <f t="shared" si="7"/>
         <v>9.5144892078498855E-2</v>
       </c>
       <c r="I226">
-        <f>AA226-AB226</f>
+        <f t="shared" si="6"/>
         <v>0.96999999999997044</v>
       </c>
       <c r="AA226">
@@ -20005,11 +23529,11 @@
         <v>46201402</v>
       </c>
       <c r="H227">
-        <f>((AA227-AB226)/AB226*100)</f>
+        <f t="shared" si="7"/>
         <v>0.28319355190065448</v>
       </c>
       <c r="I227">
-        <f>AA227-AB227</f>
+        <f t="shared" si="6"/>
         <v>0.70999999999997954</v>
       </c>
       <c r="AA227">
@@ -20042,11 +23566,11 @@
         <v>26457853</v>
       </c>
       <c r="H228">
-        <f>((AA228-AB227)/AB227*100)</f>
+        <f t="shared" si="7"/>
         <v>0.13874908180754439</v>
       </c>
       <c r="I228">
-        <f>AA228-AB228</f>
+        <f t="shared" si="6"/>
         <v>-0.92000000000001592</v>
       </c>
       <c r="AA228">
@@ -20079,11 +23603,11 @@
         <v>39000402</v>
       </c>
       <c r="H229">
-        <f>((AA229-AB228)/AB228*100)</f>
+        <f t="shared" si="7"/>
         <v>0.74254742547425723</v>
       </c>
       <c r="I229">
-        <f>AA229-AB229</f>
+        <f t="shared" si="6"/>
         <v>-0.43000000000000682</v>
       </c>
       <c r="AA229">
@@ -20116,11 +23640,11 @@
         <v>53680451</v>
       </c>
       <c r="H230">
-        <f>((AA230-AB229)/AB229*100)</f>
+        <f t="shared" si="7"/>
         <v>0.44065883870273964</v>
       </c>
       <c r="I230">
-        <f>AA230-AB230</f>
+        <f t="shared" si="6"/>
         <v>2.3500000000000227</v>
       </c>
       <c r="AA230">
@@ -20153,11 +23677,11 @@
         <v>49455259</v>
       </c>
       <c r="H231">
-        <f>((AA231-AB230)/AB230*100)</f>
+        <f t="shared" si="7"/>
         <v>0.23690303128196724</v>
       </c>
       <c r="I231">
-        <f>AA231-AB231</f>
+        <f t="shared" si="6"/>
         <v>0.34999999999996589</v>
       </c>
       <c r="AA231">
@@ -20190,11 +23714,11 @@
         <v>78520702</v>
       </c>
       <c r="H232">
-        <f>((AA232-AB231)/AB231*100)</f>
+        <f t="shared" si="7"/>
         <v>-5.6453130460506033E-2</v>
       </c>
       <c r="I232">
-        <f>AA232-AB232</f>
+        <f t="shared" si="6"/>
         <v>-2.1000000000000227</v>
       </c>
       <c r="AA232">
@@ -20227,11 +23751,11 @@
         <v>110210810</v>
       </c>
       <c r="H233">
-        <f>((AA233-AB232)/AB232*100)</f>
+        <f t="shared" si="7"/>
         <v>0.38247566063977928</v>
       </c>
       <c r="I233">
-        <f>AA233-AB233</f>
+        <f t="shared" si="6"/>
         <v>6.5199999999999818</v>
       </c>
       <c r="AA233">
@@ -20264,11 +23788,11 @@
         <v>66426229</v>
       </c>
       <c r="H234">
-        <f>((AA234-AB233)/AB233*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.18709834865370473</v>
       </c>
       <c r="I234">
-        <f>AA234-AB234</f>
+        <f t="shared" si="6"/>
         <v>-3.2299999999999613</v>
       </c>
       <c r="AA234">
@@ -20301,11 +23825,11 @@
         <v>107997675</v>
       </c>
       <c r="H235">
-        <f>((AA235-AB234)/AB234*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.43626962540058833</v>
       </c>
       <c r="I235">
-        <f>AA235-AB235</f>
+        <f t="shared" si="6"/>
         <v>-3.8400000000000318</v>
       </c>
       <c r="AA235">
@@ -20338,11 +23862,11 @@
         <v>68766812</v>
       </c>
       <c r="H236">
-        <f>((AA236-AB235)/AB235*100)</f>
+        <f t="shared" si="7"/>
         <v>0.68263953955294099</v>
       </c>
       <c r="I236">
-        <f>AA236-AB236</f>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="AA236">
@@ -20375,11 +23899,11 @@
         <v>71677208</v>
       </c>
       <c r="H237">
-        <f>((AA237-AB236)/AB236*100)</f>
+        <f t="shared" si="7"/>
         <v>0.39303613822209238</v>
       </c>
       <c r="I237">
-        <f>AA237-AB237</f>
+        <f t="shared" si="6"/>
         <v>-0.67000000000001592</v>
       </c>
       <c r="AA237">
@@ -20412,11 +23936,11 @@
         <v>51176719</v>
       </c>
       <c r="H238">
-        <f>((AA238-AB237)/AB237*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.89440276976340771</v>
       </c>
       <c r="I238">
-        <f>AA238-AB238</f>
+        <f t="shared" si="6"/>
         <v>-0.83999999999997499</v>
       </c>
       <c r="AA238">
@@ -20449,11 +23973,11 @@
         <v>52547716</v>
       </c>
       <c r="H239">
-        <f>((AA239-AB238)/AB238*100)</f>
+        <f t="shared" si="7"/>
         <v>5.281364704639379E-2</v>
       </c>
       <c r="I239">
-        <f>AA239-AB239</f>
+        <f t="shared" si="6"/>
         <v>0.12000000000000455</v>
       </c>
       <c r="AA239">
@@ -20486,11 +24010,11 @@
         <v>45303619</v>
       </c>
       <c r="H240">
-        <f>((AA240-AB239)/AB239*100)</f>
+        <f t="shared" si="7"/>
         <v>-2.1120996911050002E-2</v>
       </c>
       <c r="I240">
-        <f>AA240-AB240</f>
+        <f t="shared" si="6"/>
         <v>-1.1000000000000227</v>
       </c>
       <c r="AA240">
@@ -20523,11 +24047,11 @@
         <v>49989113</v>
       </c>
       <c r="H241">
-        <f>((AA241-AB240)/AB240*100)</f>
+        <f t="shared" si="7"/>
         <v>0.21064272361040431</v>
       </c>
       <c r="I241">
-        <f>AA241-AB241</f>
+        <f t="shared" si="6"/>
         <v>2.1299999999999955</v>
       </c>
       <c r="AA241">
@@ -20560,11 +24084,11 @@
         <v>107159962</v>
       </c>
       <c r="H242">
-        <f>((AA242-AB241)/AB241*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.45975796649578615</v>
       </c>
       <c r="I242">
-        <f>AA242-AB242</f>
+        <f t="shared" si="6"/>
         <v>1.0200000000000387</v>
       </c>
       <c r="AA242">
@@ -20597,11 +24121,11 @@
         <v>51233300</v>
       </c>
       <c r="H243">
-        <f>((AA243-AB242)/AB242*100)</f>
+        <f t="shared" si="7"/>
         <v>0.70268831514505892</v>
       </c>
       <c r="I243">
-        <f>AA243-AB243</f>
+        <f t="shared" si="6"/>
         <v>-0.31000000000000227</v>
       </c>
       <c r="AA243">
@@ -20634,11 +24158,11 @@
         <v>61836062</v>
       </c>
       <c r="H244">
-        <f>((AA244-AB243)/AB243*100)</f>
+        <f t="shared" si="7"/>
         <v>0.64967648223954477</v>
       </c>
       <c r="I244">
-        <f>AA244-AB244</f>
+        <f t="shared" si="6"/>
         <v>-2.7799999999999727</v>
       </c>
       <c r="AA244">
@@ -20671,11 +24195,11 @@
         <v>47955809</v>
       </c>
       <c r="H245">
-        <f>((AA245-AB244)/AB244*100)</f>
+        <f t="shared" si="7"/>
         <v>0.15629477193988456</v>
       </c>
       <c r="I245">
-        <f>AA245-AB245</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="AA245">
@@ -20708,11 +24232,11 @@
         <v>52136931</v>
       </c>
       <c r="H246">
-        <f>((AA246-AB245)/AB245*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.51790547574432888</v>
       </c>
       <c r="I246">
-        <f>AA246-AB246</f>
+        <f t="shared" si="6"/>
         <v>-0.62999999999999545</v>
       </c>
       <c r="AA246">
@@ -20745,11 +24269,11 @@
         <v>70401971</v>
       </c>
       <c r="H247">
-        <f>((AA247-AB246)/AB246*100)</f>
+        <f t="shared" si="7"/>
         <v>0.20633096531550893</v>
       </c>
       <c r="I247">
-        <f>AA247-AB247</f>
+        <f t="shared" si="6"/>
         <v>-0.71999999999997044</v>
       </c>
       <c r="AA247">
@@ -20782,11 +24306,11 @@
         <v>42665281</v>
       </c>
       <c r="H248">
-        <f>((AA248-AB247)/AB247*100)</f>
+        <f t="shared" si="7"/>
         <v>0.26535549832202676</v>
       </c>
       <c r="I248">
-        <f>AA248-AB248</f>
+        <f t="shared" si="6"/>
         <v>1.6200000000000045</v>
       </c>
       <c r="AA248">
@@ -20819,11 +24343,11 @@
         <v>123351078</v>
       </c>
       <c r="H249">
-        <f>((AA249-AB248)/AB248*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.93019620104744605</v>
       </c>
       <c r="I249">
-        <f>AA249-AB249</f>
+        <f t="shared" si="6"/>
         <v>5.8100000000000023</v>
       </c>
       <c r="AA249">
@@ -20856,11 +24380,11 @@
         <v>94198104</v>
       </c>
       <c r="H250">
-        <f>((AA250-AB249)/AB249*100)</f>
+        <f t="shared" si="7"/>
         <v>0.52081942255815505</v>
       </c>
       <c r="I250">
-        <f>AA250-AB250</f>
+        <f t="shared" si="6"/>
         <v>-1.2699999999999818</v>
       </c>
       <c r="AA250">
@@ -20893,11 +24417,11 @@
         <v>126765121</v>
       </c>
       <c r="H251">
-        <f>((AA251-AB250)/AB250*100)</f>
+        <f t="shared" si="7"/>
         <v>-0.52961893917326486</v>
       </c>
       <c r="I251">
-        <f>AA251-AB251</f>
+        <f t="shared" si="6"/>
         <v>5.5600000000000023</v>
       </c>
       <c r="AA251">
@@ -20930,11 +24454,11 @@
         <v>75817597</v>
       </c>
       <c r="H252">
-        <f>((AA252-AB251)/AB251*100)</f>
+        <f t="shared" si="7"/>
         <v>0.98629988921015865</v>
       </c>
       <c r="I252">
-        <f>AA252-AB252</f>
+        <f t="shared" si="6"/>
         <v>-2.5099999999999909</v>
       </c>
       <c r="AA252">
@@ -20967,11 +24491,11 @@
         <v>64450662</v>
       </c>
       <c r="H253">
-        <f>((AA253-AB252)/AB252*100)</f>
+        <f t="shared" si="7"/>
         <v>0.9090184195837544</v>
       </c>
       <c r="I253">
-        <f>AA253-AB253</f>
+        <f t="shared" si="6"/>
         <v>-1.9000000000000341</v>
       </c>
       <c r="AA253">
@@ -21004,11 +24528,11 @@
         <v>52427090</v>
       </c>
       <c r="H254">
-        <f>((AA254-AB253)/AB253*100)</f>
+        <f t="shared" si="7"/>
         <v>0.2319486305857662</v>
       </c>
       <c r="I254">
-        <f>AA254-AB254</f>
+        <f t="shared" si="6"/>
         <v>0.58499999999997954</v>
       </c>
       <c r="AA254">
@@ -21041,11 +24565,11 @@
         <v>47142555</v>
       </c>
       <c r="H255">
-        <f>((AA255-AB254)/AB254*100)</f>
+        <f t="shared" si="7"/>
         <v>0.29069006154247917</v>
       </c>
       <c r="I255">
-        <f>AA255-AB255</f>
+        <f t="shared" si="6"/>
         <v>-3.2300000000000182</v>
       </c>
       <c r="AA255">
